--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{193E9F23-6978-104F-9196-71A5EF21DF63}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D1E885F-0FEF-1941-8377-0BE6AE8DC2B7}"/>
   <bookViews>
-    <workbookView xWindow="-23580" yWindow="2820" windowWidth="23600" windowHeight="14340" activeTab="5" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
+    <workbookView xWindow="-23600" yWindow="2820" windowWidth="23600" windowHeight="13240" activeTab="5" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
   <sheets>
     <sheet name="CPX_data" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="E3_Mn_Lit" sheetId="4" r:id="rId5"/>
     <sheet name="Diffusion_Data" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1591,6 +1591,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
@@ -64173,8 +64177,8 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y12" sqref="Y12"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65274,6 +65278,24 @@
       <c r="X12">
         <v>1.9305654874556699</v>
       </c>
+      <c r="Y12">
+        <v>6.1</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>76</v>
+      </c>
+      <c r="AB12">
+        <v>77</v>
+      </c>
+      <c r="AC12">
+        <v>89.5</v>
+      </c>
+      <c r="AD12">
+        <v>90.5</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -65348,6 +65370,24 @@
       <c r="X13">
         <v>104.62398491256</v>
       </c>
+      <c r="Y13">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Z13">
+        <v>39.1</v>
+      </c>
+      <c r="AA13">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AB13">
+        <v>76.7</v>
+      </c>
+      <c r="AC13">
+        <v>86.3</v>
+      </c>
+      <c r="AD13">
+        <v>87.4</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -65422,6 +65462,24 @@
       <c r="X14">
         <v>53.665496954906502</v>
       </c>
+      <c r="Y14">
+        <v>51</v>
+      </c>
+      <c r="Z14">
+        <v>58</v>
+      </c>
+      <c r="AA14">
+        <v>72.5</v>
+      </c>
+      <c r="AB14">
+        <v>74.5</v>
+      </c>
+      <c r="AC14">
+        <v>86.9</v>
+      </c>
+      <c r="AD14">
+        <v>87.9</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -65496,6 +65554,24 @@
       <c r="X15">
         <v>36.294520612391402</v>
       </c>
+      <c r="Y15">
+        <v>23</v>
+      </c>
+      <c r="Z15">
+        <v>28</v>
+      </c>
+      <c r="AA15">
+        <v>74.2</v>
+      </c>
+      <c r="AB15">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AC15">
+        <v>83.8</v>
+      </c>
+      <c r="AD15">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -65570,8 +65646,26 @@
       <c r="X16">
         <v>73.479168669576197</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y16">
+        <v>63.5</v>
+      </c>
+      <c r="Z16">
+        <v>70.2</v>
+      </c>
+      <c r="AA16">
+        <v>73.2</v>
+      </c>
+      <c r="AB16">
+        <v>75.5</v>
+      </c>
+      <c r="AC16">
+        <v>85.4</v>
+      </c>
+      <c r="AD16">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -65644,8 +65738,26 @@
       <c r="X17">
         <v>267.03496615546601</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17">
+        <v>74</v>
+      </c>
+      <c r="Z17">
+        <v>83</v>
+      </c>
+      <c r="AA17">
+        <v>73.5</v>
+      </c>
+      <c r="AB17">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AC17">
+        <v>84.4</v>
+      </c>
+      <c r="AD17">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>445</v>
       </c>
@@ -65718,8 +65830,26 @@
       <c r="X18">
         <v>65.860438696675104</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y18">
+        <v>41</v>
+      </c>
+      <c r="Z18">
+        <v>44</v>
+      </c>
+      <c r="AA18">
+        <v>74.2</v>
+      </c>
+      <c r="AB18">
+        <v>75.5</v>
+      </c>
+      <c r="AC18">
+        <v>84.3</v>
+      </c>
+      <c r="AD18">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>446</v>
       </c>
@@ -65792,8 +65922,26 @@
       <c r="X19">
         <v>89.677377042344901</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19">
+        <v>35</v>
+      </c>
+      <c r="Z19">
+        <v>40</v>
+      </c>
+      <c r="AA19">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AB19">
+        <v>77.2</v>
+      </c>
+      <c r="AC19">
+        <v>88.1</v>
+      </c>
+      <c r="AD19">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>447</v>
       </c>
@@ -65865,6 +66013,24 @@
       </c>
       <c r="X20">
         <v>42.391329936220998</v>
+      </c>
+      <c r="Y20">
+        <v>83.5</v>
+      </c>
+      <c r="Z20">
+        <v>87.8</v>
+      </c>
+      <c r="AA20">
+        <v>73.3</v>
+      </c>
+      <c r="AB20">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AC20">
+        <v>85.2</v>
+      </c>
+      <c r="AD20">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C4DB117-4D5E-D14C-924F-EC8685C59205}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E3837E-E07E-FE49-A16F-A13C929D1DBD}"/>
   <bookViews>
-    <workbookView xWindow="-23600" yWindow="2820" windowWidth="23600" windowHeight="13240" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
+    <workbookView xWindow="2600" yWindow="500" windowWidth="23600" windowHeight="13240" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
   <sheets>
     <sheet name="CPX_data" sheetId="3" r:id="rId1"/>
@@ -1514,7 +1514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1569,6 +1569,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans Condensed"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1602,7 +1607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1626,6 +1631,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,10 +1950,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BE421-2784-9143-9212-F566FF565FAE}">
-  <dimension ref="A1:AK152"/>
+  <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomLeft" activeCell="AK105" sqref="AK105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12910,7 +12918,7 @@
         <v>75.992433061134548</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>100</v>
       </c>
@@ -13024,7 +13032,7 @@
         <v>73.040738956706733</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>101</v>
       </c>
@@ -13138,7 +13146,7 @@
         <v>73.170110947818387</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>103</v>
       </c>
@@ -13252,7 +13260,7 @@
         <v>74.131318260045873</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>81</v>
       </c>
@@ -13366,7 +13374,7 @@
         <v>87.789883123555526</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>84</v>
       </c>
@@ -13480,7 +13488,7 @@
         <v>80.079251858711046</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>86</v>
       </c>
@@ -13594,7 +13602,7 @@
         <v>78.502702109251416</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5</v>
       </c>
@@ -13708,7 +13716,7 @@
         <v>74.986823589121514</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -13821,8 +13829,9 @@
       <c r="AK104" s="18">
         <v>74.434899747031281</v>
       </c>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL104" s="19"/>
+    </row>
+    <row r="105" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -13932,8 +13941,11 @@
       <c r="AJ105" s="18">
         <v>6.7456943502042996</v>
       </c>
-    </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AK105" s="18">
+        <v>74.314307022327114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10</v>
       </c>
@@ -14046,8 +14058,9 @@
       <c r="AK106" s="18">
         <v>88.849710486699834</v>
       </c>
-    </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM106" s="18"/>
+    </row>
+    <row r="107" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>11</v>
       </c>
@@ -14161,7 +14174,7 @@
         <v>88.663724707193097</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>13</v>
       </c>
@@ -14275,7 +14288,7 @@
         <v>89.241821769599824</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>33</v>
       </c>
@@ -14389,7 +14402,7 @@
         <v>85.441906233090378</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>35</v>
       </c>
@@ -14503,7 +14516,7 @@
         <v>84.351996018955987</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>37</v>
       </c>
@@ -14617,7 +14630,7 @@
         <v>86.164602917162071</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>27</v>
       </c>

--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E3837E-E07E-FE49-A16F-A13C929D1DBD}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{941F77FD-589F-2B4F-9A74-F9EBC84F6D93}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="23600" windowHeight="13240" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
@@ -1952,10 +1952,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BE421-2784-9143-9212-F566FF565FAE}">
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE1" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="AK105" sqref="AK105"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18495,38 +18495,6 @@
       </c>
       <c r="AK145" s="18">
         <v>88.947810767771529</v>
-      </c>
-    </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="U146" s="18">
-        <v>2.2457575757575756E-2</v>
-      </c>
-      <c r="V146" s="18">
-        <v>1.555151515151515E-2</v>
-      </c>
-      <c r="W146" s="18">
-        <v>1.1813333333333334E-2</v>
-      </c>
-      <c r="X146" s="18">
-        <v>6.8963636363636371E-3</v>
-      </c>
-      <c r="Y146" s="18">
-        <v>1.4631515151515151E-2</v>
-      </c>
-      <c r="AB146" s="18">
-        <v>1.8680606060606061E-2</v>
-      </c>
-      <c r="AC146" s="18">
-        <v>1.5906060606060608E-2</v>
-      </c>
-      <c r="AD146" s="18">
-        <v>8.0060606060606068E-3</v>
-      </c>
-      <c r="AE146" s="18">
-        <v>1.4117575757575759E-2</v>
-      </c>
-      <c r="AF146" s="18">
-        <v>1.3593939393939394E-2</v>
       </c>
     </row>
     <row r="152" spans="1:37" x14ac:dyDescent="0.2">

--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{941F77FD-589F-2B4F-9A74-F9EBC84F6D93}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD988315-76E6-C248-97A5-BDE66EF80A0A}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="23600" windowHeight="13240" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="488">
   <si>
     <t>ref number</t>
   </si>
@@ -1952,10 +1952,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BE421-2784-9143-9212-F566FF565FAE}">
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE1" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="A146" sqref="A146:XFD146"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16923,6 +16923,9 @@
       <c r="D132" t="s">
         <v>112</v>
       </c>
+      <c r="E132" t="s">
+        <v>75</v>
+      </c>
       <c r="F132">
         <v>1</v>
       </c>
@@ -17034,6 +17037,9 @@
       <c r="D133" t="s">
         <v>114</v>
       </c>
+      <c r="E133" t="s">
+        <v>75</v>
+      </c>
       <c r="F133">
         <v>1</v>
       </c>
@@ -17144,6 +17150,9 @@
       </c>
       <c r="D134" t="s">
         <v>116</v>
+      </c>
+      <c r="E134" t="s">
+        <v>75</v>
       </c>
       <c r="F134">
         <v>1</v>

--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD988315-76E6-C248-97A5-BDE66EF80A0A}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77BF3F0-5CDC-C443-B016-22016933DCD7}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="23600" windowHeight="13240" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="495">
   <si>
     <t>ref number</t>
   </si>
@@ -1474,21 +1474,6 @@
     <t>V1_CoreMax</t>
   </si>
   <si>
-    <t>Cr 3+</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>Fe 2+</t>
-  </si>
-  <si>
-    <t>Fe 3+</t>
-  </si>
-  <si>
-    <t>Fe 2+ +Fe 3+</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -1505,6 +1490,42 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Si_CPX</t>
+  </si>
+  <si>
+    <t>Na_CPX</t>
+  </si>
+  <si>
+    <t>Cr3_CPX</t>
+  </si>
+  <si>
+    <t>K2_CPX</t>
+  </si>
+  <si>
+    <t>Fe2_CPX</t>
+  </si>
+  <si>
+    <t>Fe3_CPX</t>
+  </si>
+  <si>
+    <t>FeT_CPX</t>
+  </si>
+  <si>
+    <t>Al_CPX</t>
+  </si>
+  <si>
+    <t>Mg_CPX</t>
+  </si>
+  <si>
+    <t>Ca_CPX</t>
+  </si>
+  <si>
+    <t>Mn_CPX</t>
+  </si>
+  <si>
+    <t>Ti_CPX</t>
   </si>
 </sst>
 </file>
@@ -1952,10 +1973,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BE421-2784-9143-9212-F566FF565FAE}">
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE1" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2037,55 +2058,55 @@
         <v>61</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>226</v>
+        <v>483</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>227</v>
+        <v>484</v>
       </c>
       <c r="W1" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG1" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>481</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -18508,7 +18529,7 @@
     </row>
     <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="Z152" s="18" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77BF3F0-5CDC-C443-B016-22016933DCD7}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA63E06-72D3-DE4E-9191-A56B619B83E6}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="500" windowWidth="23600" windowHeight="13240" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Sample_ID_Cpx</t>
-  </si>
-  <si>
-    <t>Core/mantle/rim</t>
   </si>
   <si>
     <t>Profile</t>
@@ -1527,6 +1524,9 @@
   <si>
     <t>Ti_CPX</t>
   </si>
+  <si>
+    <t>Position</t>
+  </si>
 </sst>
 </file>
 
@@ -1973,10 +1973,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BE421-2784-9143-9212-F566FF565FAE}">
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE1" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2010,103 +2010,103 @@
         <v>45</v>
       </c>
       <c r="E1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="U1" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="AF1" s="16" t="s">
-        <v>494</v>
-      </c>
       <c r="AG1" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="AH1" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>480</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -2114,16 +2114,16 @@
         <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U2" s="17">
         <v>1.8977779320456927</v>
@@ -2228,16 +2228,16 @@
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U3" s="17">
         <v>1.9264685320444421</v>
@@ -2342,16 +2342,16 @@
         <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2396,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U4" s="17">
         <v>1.9299767698739714</v>
@@ -2456,16 +2456,16 @@
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U5" s="17">
         <v>1.9373019345605227</v>
@@ -2570,16 +2570,16 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2624,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U6" s="17">
         <v>1.8761238141405652</v>
@@ -2684,16 +2684,16 @@
         <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U7" s="17">
         <v>1.8564705702158579</v>
@@ -2798,16 +2798,16 @@
         <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U8" s="17">
         <v>1.9069886605525872</v>
@@ -2912,16 +2912,16 @@
         <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U9" s="17">
         <v>1.8943480789816192</v>
@@ -3026,16 +3026,16 @@
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3080,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U10" s="17">
         <v>1.9075277123158016</v>
@@ -3140,16 +3140,16 @@
         <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U11" s="17">
         <v>1.8842986181182291</v>
@@ -3254,16 +3254,16 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U12" s="17">
         <v>1.8663988562672136</v>
@@ -3368,16 +3368,16 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U13" s="17">
         <v>1.8426506091435595</v>
@@ -3482,16 +3482,16 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3536,7 +3536,7 @@
         <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U14" s="17">
         <v>1.9061704600304985</v>
@@ -3596,16 +3596,16 @@
         <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3650,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U15" s="17">
         <v>1.9456607053728292</v>
@@ -3710,16 +3710,16 @@
         <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U16" s="17">
         <v>1.9159048440688811</v>
@@ -3824,16 +3824,16 @@
         <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>3</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U17" s="17">
         <v>1.8828718736767005</v>
@@ -3938,16 +3938,16 @@
         <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3992,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U18" s="17">
         <v>1.8678185229812372</v>
@@ -4052,16 +4052,16 @@
         <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -4106,7 +4106,7 @@
         <v>3</v>
       </c>
       <c r="T19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U19" s="17">
         <v>1.9098235351368482</v>
@@ -4166,16 +4166,16 @@
         <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U20" s="17">
         <v>1.9005490436060479</v>
@@ -4280,16 +4280,16 @@
         <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="T21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U21" s="17">
         <v>1.8750005443209361</v>
@@ -4394,16 +4394,16 @@
         <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U22" s="17">
         <v>1.8885049826830644</v>
@@ -4508,16 +4508,16 @@
         <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U23" s="17">
         <v>1.8713756500664254</v>
@@ -4622,16 +4622,16 @@
         <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4676,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="T24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U24" s="17">
         <v>1.8982758820170584</v>
@@ -4736,16 +4736,16 @@
         <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4790,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="T25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U25" s="17">
         <v>1.8804711271604686</v>
@@ -4850,16 +4850,16 @@
         <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4904,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="T26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U26" s="17">
         <v>1.8937156300887188</v>
@@ -4964,16 +4964,16 @@
         <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5018,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="T27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U27" s="17">
         <v>1.9205793630560464</v>
@@ -5078,16 +5078,16 @@
         <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>2</v>
       </c>
       <c r="T28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U28" s="17">
         <v>1.9256462389018973</v>
@@ -5192,16 +5192,16 @@
         <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5246,7 +5246,7 @@
         <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U29" s="17">
         <v>1.8891865279496125</v>
@@ -5306,16 +5306,16 @@
         <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5360,7 +5360,7 @@
         <v>3</v>
       </c>
       <c r="T30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U30" s="17">
         <v>1.9179395378952833</v>
@@ -5420,16 +5420,16 @@
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5474,7 +5474,7 @@
         <v>3</v>
       </c>
       <c r="T31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U31" s="17">
         <v>1.8645255445146272</v>
@@ -5534,16 +5534,16 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5588,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="T32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U32" s="17">
         <v>1.9007632122086018</v>
@@ -5648,16 +5648,16 @@
         <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5702,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="T33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U33" s="17">
         <v>1.8404530506507553</v>
@@ -5762,16 +5762,16 @@
         <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5816,7 +5816,7 @@
         <v>3</v>
       </c>
       <c r="T34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U34" s="17">
         <v>1.9056354200563492</v>
@@ -5876,16 +5876,16 @@
         <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="T35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U35" s="17">
         <v>1.8467245537374475</v>
@@ -5990,16 +5990,16 @@
         <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -6044,7 +6044,7 @@
         <v>3</v>
       </c>
       <c r="T36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U36" s="17">
         <v>1.8694462797683249</v>
@@ -6104,16 +6104,16 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -6158,7 +6158,7 @@
         <v>3</v>
       </c>
       <c r="T37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U37" s="17">
         <v>1.8435107995134417</v>
@@ -6218,16 +6218,16 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -6272,7 +6272,7 @@
         <v>3</v>
       </c>
       <c r="T38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U38" s="17">
         <v>1.881970876144625</v>
@@ -6332,16 +6332,16 @@
         <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6386,7 +6386,7 @@
         <v>3</v>
       </c>
       <c r="T39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U39" s="17">
         <v>1.8989910565749928</v>
@@ -6446,16 +6446,16 @@
         <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -6500,7 +6500,7 @@
         <v>3</v>
       </c>
       <c r="T40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U40" s="17">
         <v>1.8789873169083431</v>
@@ -6560,16 +6560,16 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>3</v>
       </c>
       <c r="T41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U41" s="17">
         <v>1.8789218568403121</v>
@@ -6674,16 +6674,16 @@
         <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6728,7 +6728,7 @@
         <v>3</v>
       </c>
       <c r="T42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U42" s="17">
         <v>1.8524164102186622</v>
@@ -6788,16 +6788,16 @@
         <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -6842,7 +6842,7 @@
         <v>3</v>
       </c>
       <c r="T43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U43" s="17">
         <v>1.8609503784193275</v>
@@ -6902,16 +6902,16 @@
         <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6956,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U44" s="17">
         <v>1.9435993104268039</v>
@@ -7016,16 +7016,16 @@
         <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -7070,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U45" s="17">
         <v>1.9204883321041291</v>
@@ -7130,16 +7130,16 @@
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U46" s="17">
         <v>1.8966776272449555</v>
@@ -7244,16 +7244,16 @@
         <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U47" s="17">
         <v>1.8608669332659582</v>
@@ -7358,16 +7358,16 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -7412,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="T48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U48" s="17">
         <v>1.8390448002883946</v>
@@ -7472,16 +7472,16 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
         <v>74</v>
-      </c>
-      <c r="E49" t="s">
-        <v>75</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -7526,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="T49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U49" s="17">
         <v>1.9255241630190973</v>
@@ -7586,16 +7586,16 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
         <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>67</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -7640,7 +7640,7 @@
         <v>2</v>
       </c>
       <c r="T50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U50" s="17">
         <v>1.8382988118270362</v>
@@ -7700,16 +7700,16 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -7754,7 +7754,7 @@
         <v>2</v>
       </c>
       <c r="T51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U51" s="17">
         <v>1.8612343985554949</v>
@@ -7814,16 +7814,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -7868,7 +7868,7 @@
         <v>2</v>
       </c>
       <c r="T52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U52" s="17">
         <v>1.8794136986971153</v>
@@ -7928,16 +7928,16 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -7982,7 +7982,7 @@
         <v>4</v>
       </c>
       <c r="T53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U53" s="17">
         <v>1.9501962579868239</v>
@@ -8042,16 +8042,16 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -8096,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="T54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U54" s="17">
         <v>1.9545375611401499</v>
@@ -8156,16 +8156,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -8210,7 +8210,7 @@
         <v>4</v>
       </c>
       <c r="T55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U55" s="17">
         <v>1.8189781871664967</v>
@@ -8270,16 +8270,16 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -8324,7 +8324,7 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U56" s="17">
         <v>1.9153936817306016</v>
@@ -8384,16 +8384,16 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -8438,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U57" s="17">
         <v>1.9021117104445207</v>
@@ -8498,16 +8498,16 @@
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U58" s="17">
         <v>1.9003778176719737</v>
@@ -8612,16 +8612,16 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -8666,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U59" s="17">
         <v>1.8711974143632444</v>
@@ -8726,16 +8726,16 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -8780,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U60" s="17">
         <v>1.87936131557274</v>
@@ -8840,16 +8840,16 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -8894,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U61" s="17">
         <v>1.8788593810770606</v>
@@ -8954,16 +8954,16 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -9008,7 +9008,7 @@
         <v>3</v>
       </c>
       <c r="T62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U62" s="17">
         <v>1.915737233093681</v>
@@ -9068,16 +9068,16 @@
         <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -9122,7 +9122,7 @@
         <v>3</v>
       </c>
       <c r="T63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U63" s="17">
         <v>1.9479430399063387</v>
@@ -9182,16 +9182,16 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>3</v>
       </c>
       <c r="T64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U64" s="17">
         <v>1.8746497343738902</v>
@@ -9296,16 +9296,16 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -9350,7 +9350,7 @@
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U65" s="17">
         <v>1.9478188371520986</v>
@@ -9410,16 +9410,16 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -9464,7 +9464,7 @@
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U66" s="17">
         <v>1.8576386691669211</v>
@@ -9524,16 +9524,16 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -9578,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="T67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U67" s="17">
         <v>1.8294498587415815</v>
@@ -9638,16 +9638,16 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -9692,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U68" s="17">
         <v>1.9206203329358311</v>
@@ -9752,16 +9752,16 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -9806,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U69" s="17">
         <v>1.9271391342074926</v>
@@ -9866,16 +9866,16 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -9920,7 +9920,7 @@
         <v>1</v>
       </c>
       <c r="T70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U70" s="17">
         <v>1.863928054526985</v>
@@ -9980,16 +9980,16 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -10034,7 +10034,7 @@
         <v>1</v>
       </c>
       <c r="T71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U71" s="17">
         <v>1.8694833456032933</v>
@@ -10094,16 +10094,16 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -10148,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="T72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U72" s="17">
         <v>1.8781491420283025</v>
@@ -10208,16 +10208,16 @@
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -10262,7 +10262,7 @@
         <v>2</v>
       </c>
       <c r="T73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U73" s="17">
         <v>1.901348965383362</v>
@@ -10322,16 +10322,16 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -10376,7 +10376,7 @@
         <v>2</v>
       </c>
       <c r="T74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U74" s="17">
         <v>1.9119739645029745</v>
@@ -10436,16 +10436,16 @@
         <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -10490,7 +10490,7 @@
         <v>2</v>
       </c>
       <c r="T75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U75" s="17">
         <v>1.9224366548448497</v>
@@ -10550,16 +10550,16 @@
         <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -10604,7 +10604,7 @@
         <v>2</v>
       </c>
       <c r="T76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U76" s="17">
         <v>1.909624895084153</v>
@@ -10664,16 +10664,16 @@
         <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -10718,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="T77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U77" s="17">
         <v>1.8781319422111697</v>
@@ -10778,16 +10778,16 @@
         <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -10832,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U78" s="17">
         <v>1.8793534942599475</v>
@@ -10892,16 +10892,16 @@
         <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="T79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U79" s="17">
         <v>1.9081438758368376</v>
@@ -11006,16 +11006,16 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -11060,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="T80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U80" s="17">
         <v>1.8719043032386864</v>
@@ -11120,16 +11120,16 @@
         <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -11174,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="T81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U81" s="17">
         <v>1.8743154945202456</v>
@@ -11234,16 +11234,16 @@
         <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -11288,7 +11288,7 @@
         <v>2</v>
       </c>
       <c r="T82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U82" s="17">
         <v>1.8734774774575429</v>
@@ -11348,16 +11348,16 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -11402,7 +11402,7 @@
         <v>2</v>
       </c>
       <c r="T83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U83" s="17">
         <v>1.8570864272782672</v>
@@ -11462,16 +11462,16 @@
         <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="T84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U84" s="17">
         <v>1.8546278277647752</v>
@@ -11576,16 +11576,16 @@
         <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -11630,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="T85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U85" s="17">
         <v>1.8794371512132639</v>
@@ -11690,16 +11690,16 @@
         <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="T86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U86" s="17">
         <v>1.8820904827040636</v>
@@ -11804,16 +11804,16 @@
         <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="T87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U87" s="17">
         <v>1.8748142799935885</v>
@@ -11918,16 +11918,16 @@
         <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -11972,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="T88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U88" s="17">
         <v>1.8314324254071663</v>
@@ -12032,16 +12032,16 @@
         <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="T89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U89" s="17">
         <v>1.8507358671205789</v>
@@ -12146,16 +12146,16 @@
         <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -12200,7 +12200,7 @@
         <v>1</v>
       </c>
       <c r="T90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U90" s="17">
         <v>1.8594632863988447</v>
@@ -12260,16 +12260,16 @@
         <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -12314,7 +12314,7 @@
         <v>3</v>
       </c>
       <c r="T91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U91" s="17">
         <v>1.8950663028825072</v>
@@ -12374,16 +12374,16 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -12428,7 +12428,7 @@
         <v>3</v>
       </c>
       <c r="T92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U92" s="17">
         <v>1.8963558520509467</v>
@@ -12488,16 +12488,16 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -12542,7 +12542,7 @@
         <v>3</v>
       </c>
       <c r="T93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U93" s="17">
         <v>1.8371597739696588</v>
@@ -12602,16 +12602,16 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -12656,7 +12656,7 @@
         <v>3</v>
       </c>
       <c r="T94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U94" s="17">
         <v>1.8347023409587846</v>
@@ -12716,16 +12716,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -12770,7 +12770,7 @@
         <v>3</v>
       </c>
       <c r="T95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U95" s="17">
         <v>1.8193137615337758</v>
@@ -12830,16 +12830,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -12884,7 +12884,7 @@
         <v>3</v>
       </c>
       <c r="T96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U96" s="17">
         <v>1.8252126427472666</v>
@@ -12944,16 +12944,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -12998,7 +12998,7 @@
         <v>3</v>
       </c>
       <c r="T97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U97" s="17">
         <v>1.8339032984023957</v>
@@ -13058,16 +13058,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -13112,7 +13112,7 @@
         <v>3</v>
       </c>
       <c r="T98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U98" s="17">
         <v>1.8360817328599393</v>
@@ -13172,16 +13172,16 @@
         <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -13226,7 +13226,7 @@
         <v>3</v>
       </c>
       <c r="T99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U99" s="17">
         <v>1.8283634683872918</v>
@@ -13286,16 +13286,16 @@
         <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -13340,7 +13340,7 @@
         <v>4</v>
       </c>
       <c r="T100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U100" s="17">
         <v>1.8879989479450177</v>
@@ -13400,16 +13400,16 @@
         <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -13454,7 +13454,7 @@
         <v>4</v>
       </c>
       <c r="T101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U101" s="17">
         <v>1.8421817756219252</v>
@@ -13514,16 +13514,16 @@
         <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -13568,7 +13568,7 @@
         <v>4</v>
       </c>
       <c r="T102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U102" s="17">
         <v>1.8560217574265798</v>
@@ -13628,16 +13628,16 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -13682,7 +13682,7 @@
         <v>2</v>
       </c>
       <c r="T103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U103" s="17">
         <v>1.8266200175279887</v>
@@ -13742,16 +13742,16 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -13796,7 +13796,7 @@
         <v>2</v>
       </c>
       <c r="T104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U104" s="17">
         <v>1.8211985821320036</v>
@@ -13857,16 +13857,16 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E105" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -13911,7 +13911,7 @@
         <v>2</v>
       </c>
       <c r="T105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U105" s="17">
         <v>1.8207209927204009</v>
@@ -13971,16 +13971,16 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -14025,7 +14025,7 @@
         <v>2</v>
       </c>
       <c r="T106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U106" s="17">
         <v>1.9299404188351339</v>
@@ -14086,16 +14086,16 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -14140,7 +14140,7 @@
         <v>2</v>
       </c>
       <c r="T107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U107" s="17">
         <v>1.9358931688410437</v>
@@ -14200,16 +14200,16 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -14254,7 +14254,7 @@
         <v>2</v>
       </c>
       <c r="T108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U108" s="17">
         <v>1.9459507474574675</v>
@@ -14314,16 +14314,16 @@
         <v>33</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -14368,7 +14368,7 @@
         <v>4</v>
       </c>
       <c r="T109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U109" s="17">
         <v>1.8668042647941103</v>
@@ -14428,16 +14428,16 @@
         <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -14482,7 +14482,7 @@
         <v>4</v>
       </c>
       <c r="T110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U110" s="17">
         <v>1.8501250910578333</v>
@@ -14542,16 +14542,16 @@
         <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -14596,7 +14596,7 @@
         <v>4</v>
       </c>
       <c r="T111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U111" s="17">
         <v>1.8901125837194994</v>
@@ -14656,16 +14656,16 @@
         <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -14710,7 +14710,7 @@
         <v>2</v>
       </c>
       <c r="T112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U112" s="17">
         <v>1.899199631293597</v>
@@ -14770,16 +14770,16 @@
         <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -14824,7 +14824,7 @@
         <v>2</v>
       </c>
       <c r="T113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U113" s="17">
         <v>1.9087982909468073</v>
@@ -14884,16 +14884,16 @@
         <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -14938,7 +14938,7 @@
         <v>2</v>
       </c>
       <c r="T114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U114" s="17">
         <v>1.8977555966801194</v>
@@ -14998,16 +14998,16 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -15052,7 +15052,7 @@
         <v>2</v>
       </c>
       <c r="T115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U115" s="17">
         <v>1.8806073140556077</v>
@@ -15112,16 +15112,16 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -15166,7 +15166,7 @@
         <v>2</v>
       </c>
       <c r="T116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U116" s="17">
         <v>1.8874299863755795</v>
@@ -15226,16 +15226,16 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -15280,7 +15280,7 @@
         <v>2</v>
       </c>
       <c r="T117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U117" s="17">
         <v>1.9133527294233554</v>
@@ -15340,16 +15340,16 @@
         <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -15394,7 +15394,7 @@
         <v>2</v>
       </c>
       <c r="T118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U118" s="17">
         <v>1.9319051516950099</v>
@@ -15454,16 +15454,16 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -15508,7 +15508,7 @@
         <v>2</v>
       </c>
       <c r="T119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U119" s="17">
         <v>1.9403231884514307</v>
@@ -15568,16 +15568,16 @@
         <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -15622,7 +15622,7 @@
         <v>2</v>
       </c>
       <c r="T120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U120" s="17">
         <v>1.9344077318074495</v>
@@ -15682,16 +15682,16 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -15736,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="T121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U121" s="17">
         <v>1.9268809864681837</v>
@@ -15796,16 +15796,16 @@
         <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -15850,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="T122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U122" s="17">
         <v>1.9385337859386742</v>
@@ -15910,16 +15910,16 @@
         <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -15964,7 +15964,7 @@
         <v>1</v>
       </c>
       <c r="T123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U123" s="17">
         <v>1.9418212133595261</v>
@@ -16024,16 +16024,16 @@
         <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -16078,7 +16078,7 @@
         <v>1</v>
       </c>
       <c r="T124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U124" s="17">
         <v>1.8383263889907526</v>
@@ -16138,16 +16138,16 @@
         <v>63</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -16192,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="T125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U125" s="17">
         <v>1.8870890657104544</v>
@@ -16252,16 +16252,16 @@
         <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -16306,7 +16306,7 @@
         <v>1</v>
       </c>
       <c r="T126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U126" s="17">
         <v>1.8579852611143297</v>
@@ -16366,16 +16366,16 @@
         <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -16420,7 +16420,7 @@
         <v>4</v>
       </c>
       <c r="T127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U127" s="17">
         <v>1.9241353031707757</v>
@@ -16480,16 +16480,16 @@
         <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>4</v>
       </c>
       <c r="T128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U128" s="17">
         <v>1.9405120106016527</v>
@@ -16594,16 +16594,16 @@
         <v>41</v>
       </c>
       <c r="B129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E129" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>3</v>
       </c>
       <c r="T129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U129" s="17">
         <v>1.8789081573203998</v>
@@ -16708,16 +16708,16 @@
         <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E130" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -16762,7 +16762,7 @@
         <v>3</v>
       </c>
       <c r="T130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U130" s="17">
         <v>1.8890092593183081</v>
@@ -16822,16 +16822,16 @@
         <v>43</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -16876,7 +16876,7 @@
         <v>3</v>
       </c>
       <c r="T131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U131" s="17">
         <v>1.9150809172494552</v>
@@ -16936,16 +16936,16 @@
         <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -16990,7 +16990,7 @@
         <v>3</v>
       </c>
       <c r="T132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U132" s="17">
         <v>1.8381389038124685</v>
@@ -17050,16 +17050,16 @@
         <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -17104,7 +17104,7 @@
         <v>3</v>
       </c>
       <c r="T133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U133" s="17">
         <v>1.8280346234288183</v>
@@ -17164,16 +17164,16 @@
         <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -17218,7 +17218,7 @@
         <v>3</v>
       </c>
       <c r="T134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U134" s="17">
         <v>1.8081199958256413</v>
@@ -17278,16 +17278,16 @@
         <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -17332,7 +17332,7 @@
         <v>3</v>
       </c>
       <c r="T135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U135" s="17">
         <v>1.856389656388356</v>
@@ -17392,16 +17392,16 @@
         <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -17446,7 +17446,7 @@
         <v>3</v>
       </c>
       <c r="T136" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U136" s="17">
         <v>1.8530143970449033</v>
@@ -17506,16 +17506,16 @@
         <v>54</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -17560,7 +17560,7 @@
         <v>3</v>
       </c>
       <c r="T137" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U137" s="17">
         <v>1.8753984037784011</v>
@@ -17620,16 +17620,16 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138" t="s">
         <v>63</v>
-      </c>
-      <c r="E138" t="s">
-        <v>64</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -17674,7 +17674,7 @@
         <v>3</v>
       </c>
       <c r="T138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U138" s="17">
         <v>1.8905072145215585</v>
@@ -17734,16 +17734,16 @@
         <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -17788,7 +17788,7 @@
         <v>3</v>
       </c>
       <c r="T139" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U139" s="17">
         <v>1.873141277467989</v>
@@ -17848,16 +17848,16 @@
         <v>68</v>
       </c>
       <c r="B140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -17902,7 +17902,7 @@
         <v>4</v>
       </c>
       <c r="T140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U140" s="17">
         <v>1.9268200069752413</v>
@@ -17962,16 +17962,16 @@
         <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E141" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -18016,7 +18016,7 @@
         <v>4</v>
       </c>
       <c r="T141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U141" s="17">
         <v>1.9258446101576103</v>
@@ -18076,16 +18076,16 @@
         <v>72</v>
       </c>
       <c r="B142" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E142" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -18130,7 +18130,7 @@
         <v>4</v>
       </c>
       <c r="T142" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U142" s="17">
         <v>1.9339875267074473</v>
@@ -18190,16 +18190,16 @@
         <v>74</v>
       </c>
       <c r="B143" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E143" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -18244,7 +18244,7 @@
         <v>4</v>
       </c>
       <c r="T143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U143" s="17">
         <v>1.9124620049479562</v>
@@ -18304,16 +18304,16 @@
         <v>76</v>
       </c>
       <c r="B144" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -18358,7 +18358,7 @@
         <v>4</v>
       </c>
       <c r="T144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U144" s="17">
         <v>1.9044355100836514</v>
@@ -18418,16 +18418,16 @@
         <v>78</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -18472,7 +18472,7 @@
         <v>4</v>
       </c>
       <c r="T145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U145" s="17">
         <v>1.913088678361992</v>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="Z152" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -18555,40 +18555,40 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1">
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -18608,57 +18608,57 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -18666,13 +18666,13 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -18692,69 +18692,69 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2">
         <v>17.2544</v>
@@ -18805,13 +18805,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3">
         <v>17.209700000000002</v>
@@ -18862,13 +18862,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4">
         <v>17.121099999999998</v>
@@ -18919,13 +18919,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5">
         <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5">
         <v>17.357600000000001</v>
@@ -18976,13 +18976,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6">
         <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6">
         <v>17.377199999999998</v>
@@ -19033,13 +19033,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7">
         <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7">
         <v>17.410499999999999</v>
@@ -19090,13 +19090,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8">
         <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8">
         <v>17.421700000000001</v>
@@ -19147,13 +19147,13 @@
     </row>
     <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="7">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="7">
         <v>17.0291</v>
@@ -19204,13 +19204,13 @@
     </row>
     <row r="10" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="7">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="7">
         <v>17.012599999999999</v>
@@ -19261,13 +19261,13 @@
     </row>
     <row r="11" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="7">
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="7">
         <v>17.030799999999999</v>
@@ -19318,13 +19318,13 @@
     </row>
     <row r="12" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="7">
         <v>123</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D12" s="7">
         <v>17.058199999999999</v>
@@ -19375,13 +19375,13 @@
     </row>
     <row r="13" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="7">
         <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" s="7">
         <v>17.071999999999999</v>
@@ -19432,13 +19432,13 @@
     </row>
     <row r="14" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="7">
         <v>125</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
         <v>17.093299999999999</v>
@@ -19594,7 +19594,7 @@
     </row>
     <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H18" s="12">
         <v>46.1</v>
@@ -19654,13 +19654,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D21">
         <v>15.863899999999999</v>
@@ -19711,13 +19711,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22">
         <v>15.922700000000001</v>
@@ -19768,13 +19768,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D23">
         <v>15.9741</v>
@@ -19825,13 +19825,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24">
         <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24">
         <v>15.716200000000001</v>
@@ -19882,13 +19882,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25">
         <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25">
         <v>15.717499999999999</v>
@@ -19939,13 +19939,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26">
         <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D26">
         <v>15.727499999999999</v>
@@ -19996,13 +19996,13 @@
     </row>
     <row r="27" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" s="7">
         <v>13</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D27" s="7">
         <v>15.1472</v>
@@ -20053,13 +20053,13 @@
     </row>
     <row r="28" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B28" s="7">
         <v>14</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D28" s="7">
         <v>15.122199999999999</v>
@@ -20110,13 +20110,13 @@
     </row>
     <row r="29" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" s="7">
         <v>15</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D29" s="7">
         <v>15.088200000000001</v>
@@ -20167,13 +20167,13 @@
     </row>
     <row r="30" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B30" s="7">
         <v>126</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30" s="7">
         <v>15.377599999999999</v>
@@ -20224,13 +20224,13 @@
     </row>
     <row r="31" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="7">
         <v>127</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D31" s="7">
         <v>15.361700000000001</v>
@@ -20281,13 +20281,13 @@
     </row>
     <row r="32" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" s="7">
         <v>128</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" s="7">
         <v>15.3718</v>
@@ -20443,7 +20443,7 @@
     </row>
     <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H36" s="12">
         <v>50.3</v>
@@ -20516,13 +20516,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D40">
         <v>17.52</v>
@@ -20573,13 +20573,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D41">
         <v>17.540299999999998</v>
@@ -20630,13 +20630,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D42">
         <v>17.555599999999998</v>
@@ -20687,13 +20687,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D43">
         <v>17.5762</v>
@@ -20744,13 +20744,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B44">
         <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D44">
         <v>17.6768</v>
@@ -20801,13 +20801,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45">
         <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D45">
         <v>17.641200000000001</v>
@@ -20858,13 +20858,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B46">
         <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D46">
         <v>17.631799999999998</v>
@@ -20915,13 +20915,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B47">
         <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D47">
         <v>17.650700000000001</v>
@@ -20972,13 +20972,13 @@
     </row>
     <row r="48" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B48" s="7">
         <v>7</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D48" s="7">
         <v>17.559000000000001</v>
@@ -21029,13 +21029,13 @@
     </row>
     <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B49" s="7">
         <v>8</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D49" s="7">
         <v>17.584700000000002</v>
@@ -21086,13 +21086,13 @@
     </row>
     <row r="50" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B50" s="7">
         <v>9</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D50" s="7">
         <v>17.630299999999998</v>
@@ -21143,13 +21143,13 @@
     </row>
     <row r="51" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B51" s="7">
         <v>120</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D51" s="7">
         <v>17.523499999999999</v>
@@ -21200,13 +21200,13 @@
     </row>
     <row r="52" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B52" s="7">
         <v>121</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D52" s="7">
         <v>17.508299999999998</v>
@@ -21257,13 +21257,13 @@
     </row>
     <row r="53" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B53" s="7">
         <v>122</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D53" s="7">
         <v>17.423200000000001</v>
@@ -21463,13 +21463,13 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59">
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D59">
         <v>10.3362</v>
@@ -21520,13 +21520,13 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60">
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D60">
         <v>10.3062</v>
@@ -21577,13 +21577,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B61">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D61">
         <v>10.319100000000001</v>
@@ -21634,13 +21634,13 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B62">
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D62">
         <v>10.3811</v>
@@ -21691,13 +21691,13 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B63">
         <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D63">
         <v>10.226000000000001</v>
@@ -21748,13 +21748,13 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B64">
         <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D64">
         <v>10.157999999999999</v>
@@ -21805,13 +21805,13 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B65">
         <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D65">
         <v>10.1617</v>
@@ -21862,13 +21862,13 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B66">
         <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D66">
         <v>10.1656</v>
@@ -21919,13 +21919,13 @@
     </row>
     <row r="67" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B67" s="7">
         <v>4</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D67" s="7">
         <v>10.248699999999999</v>
@@ -21976,13 +21976,13 @@
     </row>
     <row r="68" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68" s="7">
         <v>5</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D68" s="7">
         <v>10.2439</v>
@@ -22033,13 +22033,13 @@
     </row>
     <row r="69" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B69" s="7">
         <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D69" s="7">
         <v>10.2674</v>
@@ -22090,13 +22090,13 @@
     </row>
     <row r="70" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" s="7">
         <v>117</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D70" s="7">
         <v>10.285600000000001</v>
@@ -22147,13 +22147,13 @@
     </row>
     <row r="71" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" s="7">
         <v>118</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D71" s="7">
         <v>10.323</v>
@@ -22204,13 +22204,13 @@
     </row>
     <row r="72" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B72" s="7">
         <v>119</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D72" s="7">
         <v>10.3414</v>
@@ -22366,7 +22366,7 @@
     </row>
     <row r="76" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H76" s="15">
         <v>41.76183076923077</v>
@@ -22413,13 +22413,13 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D78">
         <v>13.546900000000001</v>
@@ -22470,13 +22470,13 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D79">
         <v>13.5464</v>
@@ -22527,13 +22527,13 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D80">
         <v>13.516299999999999</v>
@@ -22584,13 +22584,13 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B81">
         <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D81">
         <v>13.5258</v>
@@ -22641,13 +22641,13 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B82">
         <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D82">
         <v>13.5238</v>
@@ -22698,13 +22698,13 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B83">
         <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D83">
         <v>13.496700000000001</v>
@@ -22755,13 +22755,13 @@
     </row>
     <row r="84" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B84" s="7">
         <v>1</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D84" s="7">
         <v>13.582800000000001</v>
@@ -22812,13 +22812,13 @@
     </row>
     <row r="85" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B85" s="7">
         <v>2</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D85" s="7">
         <v>13.604200000000001</v>
@@ -22869,13 +22869,13 @@
     </row>
     <row r="86" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B86" s="7">
         <v>3</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D86" s="7">
         <v>13.6</v>
@@ -23018,7 +23018,7 @@
     </row>
     <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H90" s="15">
         <v>51.232918181818178</v>
@@ -23069,45 +23069,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="C1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -23145,7 +23145,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -23183,7 +23183,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -23221,7 +23221,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5">
         <v>163</v>
@@ -23259,7 +23259,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6">
         <v>164</v>
@@ -23297,7 +23297,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7">
         <v>165</v>
@@ -23335,7 +23335,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8">
         <v>166</v>
@@ -23373,7 +23373,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -23411,7 +23411,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -23449,7 +23449,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -23487,7 +23487,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14">
         <v>149</v>
@@ -23525,7 +23525,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15">
         <v>150</v>
@@ -23563,7 +23563,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16">
         <v>151</v>
@@ -23601,7 +23601,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -23639,7 +23639,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -23677,7 +23677,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -23715,7 +23715,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -23753,7 +23753,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23">
         <v>155</v>
@@ -23791,7 +23791,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B24">
         <v>156</v>
@@ -23829,7 +23829,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B25">
         <v>157</v>
@@ -23867,7 +23867,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26">
         <v>158</v>
@@ -23905,7 +23905,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -23943,7 +23943,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -23981,7 +23981,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -24019,7 +24019,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B32">
         <v>11</v>
@@ -24057,7 +24057,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33">
         <v>159</v>
@@ -24095,7 +24095,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34">
         <v>160</v>
@@ -24133,7 +24133,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B35">
         <v>161</v>
@@ -24171,7 +24171,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36">
         <v>162</v>
@@ -24209,7 +24209,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -24247,7 +24247,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -24285,7 +24285,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -24323,7 +24323,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B42">
         <v>152</v>
@@ -24361,7 +24361,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43">
         <v>153</v>
@@ -24399,7 +24399,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B44">
         <v>154</v>
@@ -24437,7 +24437,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>18</v>
@@ -24475,7 +24475,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>19</v>
@@ -24513,7 +24513,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>20</v>
@@ -24551,7 +24551,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B49">
         <v>21</v>
@@ -24589,7 +24589,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>22</v>
@@ -24627,7 +24627,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51">
         <v>23</v>
@@ -24665,7 +24665,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52">
         <v>24</v>
@@ -24703,7 +24703,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53">
         <v>25</v>
@@ -24741,7 +24741,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54">
         <v>26</v>
@@ -24779,7 +24779,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B55">
         <v>27</v>
@@ -24817,7 +24817,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B56">
         <v>28</v>
@@ -24855,7 +24855,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57">
         <v>29</v>
@@ -24893,7 +24893,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58">
         <v>30</v>
@@ -24931,7 +24931,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59">
         <v>31</v>
@@ -24969,7 +24969,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60">
         <v>32</v>
@@ -25007,7 +25007,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61">
         <v>33</v>
@@ -25045,7 +25045,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62">
         <v>34</v>
@@ -25083,7 +25083,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63">
         <v>35</v>
@@ -25121,7 +25121,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B64">
         <v>36</v>
@@ -25159,7 +25159,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65">
         <v>37</v>
@@ -25197,7 +25197,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -25235,7 +25235,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>39</v>
@@ -25273,7 +25273,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>40</v>
@@ -25311,7 +25311,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B69">
         <v>41</v>
@@ -25349,7 +25349,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>42</v>
@@ -25387,7 +25387,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>43</v>
@@ -25425,7 +25425,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>44</v>
@@ -25463,7 +25463,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B73">
         <v>45</v>
@@ -25501,7 +25501,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B74">
         <v>46</v>
@@ -25539,7 +25539,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75">
         <v>47</v>
@@ -25577,7 +25577,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76">
         <v>48</v>
@@ -25615,7 +25615,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>49</v>
@@ -25653,7 +25653,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>50</v>
@@ -25691,7 +25691,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -25729,7 +25729,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B80">
         <v>52</v>
@@ -25767,7 +25767,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81">
         <v>53</v>
@@ -25805,7 +25805,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82">
         <v>54</v>
@@ -25843,7 +25843,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83">
         <v>55</v>
@@ -25881,7 +25881,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84">
         <v>56</v>
@@ -25919,7 +25919,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B85">
         <v>57</v>
@@ -25957,7 +25957,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86">
         <v>58</v>
@@ -25995,7 +25995,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B87">
         <v>59</v>
@@ -26033,7 +26033,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B88">
         <v>60</v>
@@ -26071,7 +26071,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B89">
         <v>61</v>
@@ -26109,7 +26109,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B90">
         <v>62</v>
@@ -26147,7 +26147,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B91">
         <v>63</v>
@@ -26185,7 +26185,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B92">
         <v>64</v>
@@ -26223,7 +26223,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B93">
         <v>65</v>
@@ -26261,7 +26261,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B94">
         <v>66</v>
@@ -26299,7 +26299,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95">
         <v>67</v>
@@ -26337,7 +26337,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96">
         <v>68</v>
@@ -26375,7 +26375,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B97">
         <v>69</v>
@@ -26413,7 +26413,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B98">
         <v>70</v>
@@ -26451,7 +26451,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B99">
         <v>71</v>
@@ -26489,7 +26489,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B100">
         <v>72</v>
@@ -26527,7 +26527,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B101">
         <v>73</v>
@@ -26565,7 +26565,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B102">
         <v>74</v>
@@ -26603,7 +26603,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B103">
         <v>75</v>
@@ -26641,7 +26641,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B104">
         <v>76</v>
@@ -26679,7 +26679,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B105">
         <v>77</v>
@@ -26717,7 +26717,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B106">
         <v>78</v>
@@ -26755,7 +26755,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B107">
         <v>79</v>
@@ -26793,7 +26793,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B108">
         <v>80</v>
@@ -26831,7 +26831,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B109">
         <v>81</v>
@@ -26869,7 +26869,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B110">
         <v>82</v>
@@ -26907,7 +26907,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111">
         <v>83</v>
@@ -26945,7 +26945,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B112">
         <v>84</v>
@@ -26983,7 +26983,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B113">
         <v>85</v>
@@ -27021,7 +27021,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B114">
         <v>86</v>
@@ -27059,7 +27059,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B115">
         <v>87</v>
@@ -27097,7 +27097,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B116">
         <v>88</v>
@@ -27135,7 +27135,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B117">
         <v>89</v>
@@ -27173,7 +27173,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B118">
         <v>90</v>
@@ -27211,7 +27211,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B119">
         <v>91</v>
@@ -27249,7 +27249,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B120">
         <v>92</v>
@@ -27287,7 +27287,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B121">
         <v>93</v>
@@ -27325,7 +27325,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B122">
         <v>94</v>
@@ -27363,7 +27363,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B123">
         <v>95</v>
@@ -27401,7 +27401,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B124">
         <v>96</v>
@@ -27439,7 +27439,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B125">
         <v>97</v>
@@ -27477,7 +27477,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B126">
         <v>98</v>
@@ -27515,7 +27515,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B127">
         <v>99</v>
@@ -27553,7 +27553,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B128">
         <v>100</v>
@@ -27591,7 +27591,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B129">
         <v>101</v>
@@ -27629,7 +27629,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B130">
         <v>102</v>
@@ -27667,7 +27667,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B131">
         <v>103</v>
@@ -27705,7 +27705,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B132">
         <v>104</v>
@@ -27743,7 +27743,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B133">
         <v>105</v>
@@ -27781,7 +27781,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B134">
         <v>106</v>
@@ -27819,7 +27819,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B135">
         <v>107</v>
@@ -27857,7 +27857,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B136">
         <v>108</v>
@@ -27895,7 +27895,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B137">
         <v>109</v>
@@ -27933,7 +27933,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B138">
         <v>110</v>
@@ -27971,7 +27971,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B139">
         <v>111</v>
@@ -28009,7 +28009,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B140">
         <v>112</v>
@@ -28047,7 +28047,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B141">
         <v>113</v>
@@ -28085,7 +28085,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B142">
         <v>114</v>
@@ -28123,7 +28123,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B143">
         <v>115</v>
@@ -28161,7 +28161,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B144">
         <v>116</v>
@@ -28199,7 +28199,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B145">
         <v>117</v>
@@ -28237,7 +28237,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B146">
         <v>118</v>
@@ -28275,7 +28275,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B147">
         <v>119</v>
@@ -28313,7 +28313,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B148">
         <v>120</v>
@@ -28351,7 +28351,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B149">
         <v>121</v>
@@ -28389,7 +28389,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B150">
         <v>122</v>
@@ -28427,7 +28427,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B151">
         <v>123</v>
@@ -28465,7 +28465,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B152">
         <v>124</v>
@@ -28503,7 +28503,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B153">
         <v>125</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B154">
         <v>126</v>
@@ -28579,7 +28579,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B155">
         <v>127</v>
@@ -28617,7 +28617,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B156">
         <v>128</v>
@@ -28656,7 +28656,7 @@
     <row r="157" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B158">
         <v>10</v>
@@ -28694,7 +28694,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B159">
         <v>11</v>
@@ -28732,7 +28732,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B160">
         <v>12</v>
@@ -28770,7 +28770,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B161">
         <v>123</v>
@@ -28808,7 +28808,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B162">
         <v>124</v>
@@ -28846,7 +28846,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B163">
         <v>125</v>
@@ -28884,7 +28884,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B166">
         <v>13</v>
@@ -28922,7 +28922,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B167">
         <v>14</v>
@@ -28960,7 +28960,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B168">
         <v>15</v>
@@ -28998,7 +28998,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B169">
         <v>126</v>
@@ -29036,7 +29036,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B170">
         <v>127</v>
@@ -29074,7 +29074,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B171">
         <v>128</v>
@@ -29112,7 +29112,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -29150,7 +29150,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B175">
         <v>5</v>
@@ -29188,7 +29188,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B176">
         <v>6</v>
@@ -29226,7 +29226,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B177">
         <v>117</v>
@@ -29264,7 +29264,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B178">
         <v>118</v>
@@ -29302,7 +29302,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B179">
         <v>119</v>
@@ -29340,7 +29340,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -29378,7 +29378,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -29416,7 +29416,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -29454,7 +29454,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B185">
         <v>7</v>
@@ -29492,7 +29492,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B186">
         <v>8</v>
@@ -29530,7 +29530,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B187">
         <v>9</v>
@@ -29568,7 +29568,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B188">
         <v>120</v>
@@ -29606,7 +29606,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B189">
         <v>121</v>
@@ -29644,7 +29644,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B190">
         <v>122</v>
@@ -29682,7 +29682,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B193">
         <v>16</v>
@@ -29720,7 +29720,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B194">
         <v>17</v>
@@ -29758,7 +29758,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B195">
         <v>18</v>
@@ -29796,7 +29796,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B196">
         <v>19</v>
@@ -29834,7 +29834,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B197">
         <v>20</v>
@@ -29872,7 +29872,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B198">
         <v>21</v>
@@ -29910,7 +29910,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B199">
         <v>22</v>
@@ -29948,7 +29948,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B200">
         <v>23</v>
@@ -29986,7 +29986,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B201">
         <v>24</v>
@@ -30024,7 +30024,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B202">
         <v>25</v>
@@ -30062,7 +30062,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B203">
         <v>26</v>
@@ -30100,7 +30100,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B204">
         <v>27</v>
@@ -30138,7 +30138,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B205">
         <v>28</v>
@@ -30176,7 +30176,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B206">
         <v>29</v>
@@ -30214,7 +30214,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B207">
         <v>30</v>
@@ -30252,7 +30252,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B208">
         <v>31</v>
@@ -30290,7 +30290,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B209">
         <v>32</v>
@@ -30328,7 +30328,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B210">
         <v>33</v>
@@ -30366,7 +30366,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B211">
         <v>34</v>
@@ -30404,7 +30404,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B212">
         <v>35</v>
@@ -30442,7 +30442,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B213">
         <v>36</v>
@@ -30480,7 +30480,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B214">
         <v>37</v>
@@ -30518,7 +30518,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B215">
         <v>38</v>
@@ -30556,7 +30556,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B216">
         <v>39</v>
@@ -30594,7 +30594,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B217">
         <v>40</v>
@@ -30632,7 +30632,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B218">
         <v>41</v>
@@ -30670,7 +30670,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B219">
         <v>42</v>
@@ -30708,7 +30708,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B220">
         <v>43</v>
@@ -30746,7 +30746,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B221">
         <v>44</v>
@@ -30784,7 +30784,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B222">
         <v>45</v>
@@ -30822,7 +30822,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B223">
         <v>46</v>
@@ -30860,7 +30860,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B224">
         <v>47</v>
@@ -30898,7 +30898,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B225">
         <v>48</v>
@@ -30936,7 +30936,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B226">
         <v>49</v>
@@ -30974,7 +30974,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B227">
         <v>50</v>
@@ -31012,7 +31012,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B228">
         <v>51</v>
@@ -31050,7 +31050,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B229">
         <v>52</v>
@@ -31088,7 +31088,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B230">
         <v>53</v>
@@ -31126,7 +31126,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B231">
         <v>54</v>
@@ -31164,7 +31164,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B232">
         <v>55</v>
@@ -31202,7 +31202,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B233">
         <v>56</v>
@@ -31240,7 +31240,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B234">
         <v>57</v>
@@ -31278,7 +31278,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B235">
         <v>58</v>
@@ -31316,7 +31316,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B236">
         <v>59</v>
@@ -31354,7 +31354,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B237">
         <v>60</v>
@@ -31392,7 +31392,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B238">
         <v>61</v>
@@ -31430,7 +31430,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B239">
         <v>62</v>
@@ -31468,7 +31468,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B240">
         <v>63</v>
@@ -31506,7 +31506,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B241">
         <v>64</v>
@@ -31544,7 +31544,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B242">
         <v>65</v>
@@ -31582,7 +31582,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B243">
         <v>66</v>
@@ -31620,7 +31620,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B244">
         <v>67</v>
@@ -31658,7 +31658,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B245">
         <v>68</v>
@@ -31696,7 +31696,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B246">
         <v>69</v>
@@ -31734,7 +31734,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B247">
         <v>70</v>
@@ -31772,7 +31772,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B248">
         <v>71</v>
@@ -31810,7 +31810,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B249">
         <v>72</v>
@@ -31848,7 +31848,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B250">
         <v>73</v>
@@ -31886,7 +31886,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B251">
         <v>74</v>
@@ -31924,7 +31924,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B252">
         <v>75</v>
@@ -31962,7 +31962,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B253">
         <v>76</v>
@@ -32000,7 +32000,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B254">
         <v>77</v>
@@ -32038,7 +32038,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B255">
         <v>78</v>
@@ -32076,7 +32076,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B256">
         <v>79</v>
@@ -32114,7 +32114,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B257">
         <v>80</v>
@@ -32152,7 +32152,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B258">
         <v>81</v>
@@ -32190,7 +32190,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B259">
         <v>82</v>
@@ -32228,7 +32228,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B260">
         <v>83</v>
@@ -32266,7 +32266,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B261">
         <v>84</v>
@@ -32304,7 +32304,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B262">
         <v>85</v>
@@ -32342,7 +32342,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B263">
         <v>86</v>
@@ -32380,7 +32380,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B264">
         <v>87</v>
@@ -32418,7 +32418,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B265">
         <v>88</v>
@@ -32456,7 +32456,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B266">
         <v>89</v>
@@ -32494,7 +32494,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B267">
         <v>90</v>
@@ -32532,7 +32532,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B268">
         <v>91</v>
@@ -32570,7 +32570,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B269">
         <v>92</v>
@@ -32608,7 +32608,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B270">
         <v>93</v>
@@ -32646,7 +32646,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B271">
         <v>94</v>
@@ -32684,7 +32684,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B272">
         <v>95</v>
@@ -32722,7 +32722,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B273">
         <v>96</v>
@@ -32760,7 +32760,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B274">
         <v>97</v>
@@ -32798,7 +32798,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B275">
         <v>98</v>
@@ -32836,7 +32836,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B276">
         <v>99</v>
@@ -32874,7 +32874,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B277">
         <v>100</v>
@@ -32912,7 +32912,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B278">
         <v>101</v>
@@ -32950,7 +32950,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B279">
         <v>102</v>
@@ -32988,7 +32988,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B280">
         <v>103</v>
@@ -33026,7 +33026,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B281">
         <v>104</v>
@@ -33064,7 +33064,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B282">
         <v>105</v>
@@ -33102,7 +33102,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B283">
         <v>106</v>
@@ -33140,7 +33140,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B284">
         <v>107</v>
@@ -33178,7 +33178,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B285">
         <v>108</v>
@@ -33216,7 +33216,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B286">
         <v>109</v>
@@ -33254,7 +33254,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B287">
         <v>110</v>
@@ -33292,7 +33292,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B288">
         <v>111</v>
@@ -33330,7 +33330,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B289">
         <v>112</v>
@@ -33368,7 +33368,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B290">
         <v>113</v>
@@ -33406,7 +33406,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B291">
         <v>114</v>
@@ -33444,7 +33444,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B292">
         <v>115</v>
@@ -33482,7 +33482,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B293">
         <v>116</v>
@@ -71841,99 +71841,99 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
         <v>448</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>449</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>450</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>451</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>452</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>453</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N1" t="s">
+        <v>469</v>
+      </c>
+      <c r="O1" t="s">
         <v>454</v>
       </c>
-      <c r="I1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J1" t="s">
-        <v>466</v>
-      </c>
-      <c r="K1" t="s">
-        <v>467</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
-      </c>
-      <c r="M1" t="s">
-        <v>469</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R1" t="s">
+        <v>457</v>
+      </c>
+      <c r="S1" t="s">
+        <v>459</v>
+      </c>
+      <c r="T1" t="s">
+        <v>460</v>
+      </c>
+      <c r="U1" t="s">
+        <v>458</v>
+      </c>
+      <c r="V1" t="s">
+        <v>461</v>
+      </c>
+      <c r="W1" t="s">
+        <v>462</v>
+      </c>
+      <c r="X1" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y1" t="s">
         <v>470</v>
       </c>
-      <c r="O1" t="s">
-        <v>455</v>
-      </c>
-      <c r="P1" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>457</v>
-      </c>
-      <c r="R1" t="s">
-        <v>458</v>
-      </c>
-      <c r="S1" t="s">
-        <v>460</v>
-      </c>
-      <c r="T1" t="s">
-        <v>461</v>
-      </c>
-      <c r="U1" t="s">
-        <v>459</v>
-      </c>
-      <c r="V1" t="s">
-        <v>462</v>
-      </c>
-      <c r="W1" t="s">
-        <v>463</v>
-      </c>
-      <c r="X1" t="s">
-        <v>464</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>471</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>472</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>473</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>474</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>475</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2">
         <v>68.869939137966796</v>
@@ -72025,7 +72025,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3">
         <v>46.7048005256935</v>
@@ -72117,7 +72117,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B4">
         <v>58.536463011878297</v>
@@ -72209,7 +72209,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B5">
         <v>28.257313644712202</v>
@@ -72301,7 +72301,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6">
         <v>32.647777213531398</v>
@@ -72393,7 +72393,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7">
         <v>94.421165155722505</v>
@@ -72485,7 +72485,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8">
         <v>71.983488318699997</v>
@@ -72577,7 +72577,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9">
         <v>256.55985653340201</v>
@@ -72669,7 +72669,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10">
         <v>9.0435220563669692</v>
@@ -72761,7 +72761,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B11">
         <v>49.608228025971499</v>
@@ -72853,7 +72853,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12">
         <v>25.836568691759499</v>
@@ -72945,7 +72945,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13">
         <v>172.14717564817701</v>
@@ -73037,7 +73037,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14">
         <v>253.705060380437</v>
@@ -73129,7 +73129,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15">
         <v>42.033214469666497</v>
@@ -73221,7 +73221,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B16">
         <v>50.3711164360788</v>
@@ -73313,7 +73313,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17">
         <v>286.39996137112701</v>
@@ -73405,7 +73405,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B18">
         <v>31.9599108534522</v>
@@ -73497,7 +73497,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B19">
         <v>187.53287075471499</v>
@@ -73589,7 +73589,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B20">
         <v>28.936459660519599</v>

--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA63E06-72D3-DE4E-9191-A56B619B83E6}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69029755-DF7E-C14E-8201-DC8C67D13EE5}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="500" windowWidth="23600" windowHeight="13240" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
+    <workbookView xWindow="-28800" yWindow="-1940" windowWidth="23600" windowHeight="13240" activeTab="5" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
   <sheets>
     <sheet name="CPX_data" sheetId="3" r:id="rId1"/>
@@ -1649,9 +1649,9 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1973,7 +1973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97BE421-2784-9143-9212-F566FF565FAE}">
   <dimension ref="A1:AM152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
@@ -2189,7 +2189,7 @@
         <v>5.8828725217964006E-2</v>
       </c>
       <c r="AA2" s="17">
-        <f>Z2+Y2</f>
+        <f t="shared" ref="AA2:AA33" si="0">Z2+Y2</f>
         <v>0.13512570109752703</v>
       </c>
       <c r="AB2" s="17">
@@ -2303,7 +2303,7 @@
         <v>4.978972318873609E-2</v>
       </c>
       <c r="AA3" s="17">
-        <f>Z3+Y3</f>
+        <f t="shared" si="0"/>
         <v>0.10351633575049211</v>
       </c>
       <c r="AB3" s="17">
@@ -2417,7 +2417,7 @@
         <v>4.3549259263125251E-2</v>
       </c>
       <c r="AA4" s="17">
-        <f>Z4+Y4</f>
+        <f t="shared" si="0"/>
         <v>0.10389608775152544</v>
       </c>
       <c r="AB4" s="17">
@@ -2531,7 +2531,7 @@
         <v>4.0120859104801454E-2</v>
       </c>
       <c r="AA5" s="17">
-        <f>Z5+Y5</f>
+        <f t="shared" si="0"/>
         <v>0.10095473278280709</v>
       </c>
       <c r="AB5" s="17">
@@ -2645,7 +2645,7 @@
         <v>0.10926056746561663</v>
       </c>
       <c r="AA6" s="17">
-        <f>Z6+Y6</f>
+        <f t="shared" si="0"/>
         <v>0.26606776568210372</v>
       </c>
       <c r="AB6" s="17">
@@ -2759,7 +2759,7 @@
         <v>0.11117256948127086</v>
       </c>
       <c r="AA7" s="17">
-        <f>Z7+Y7</f>
+        <f t="shared" si="0"/>
         <v>0.25754073905718872</v>
       </c>
       <c r="AB7" s="17">
@@ -2873,7 +2873,7 @@
         <v>4.7373968086603213E-2</v>
       </c>
       <c r="AA8" s="17">
-        <f>Z8+Y8</f>
+        <f t="shared" si="0"/>
         <v>0.15786388243287497</v>
       </c>
       <c r="AB8" s="17">
@@ -2987,7 +2987,7 @@
         <v>6.272594459647074E-2</v>
       </c>
       <c r="AA9" s="17">
-        <f>Z9+Y9</f>
+        <f t="shared" si="0"/>
         <v>0.1622391056504717</v>
       </c>
       <c r="AB9" s="17">
@@ -3101,7 +3101,7 @@
         <v>4.8188976842297393E-2</v>
       </c>
       <c r="AA10" s="17">
-        <f>Z10+Y10</f>
+        <f t="shared" si="0"/>
         <v>0.1691696211069276</v>
       </c>
       <c r="AB10" s="17">
@@ -3215,7 +3215,7 @@
         <v>9.7091454833359236E-2</v>
       </c>
       <c r="AA11" s="17">
-        <f>Z11+Y11</f>
+        <f t="shared" si="0"/>
         <v>0.25276245188949537</v>
       </c>
       <c r="AB11" s="17">
@@ -3329,7 +3329,7 @@
         <v>0.11836826817787482</v>
       </c>
       <c r="AA12" s="17">
-        <f>Z12+Y12</f>
+        <f t="shared" si="0"/>
         <v>0.25376726676891881</v>
       </c>
       <c r="AB12" s="17">
@@ -3443,7 +3443,7 @@
         <v>0.1518590283701684</v>
       </c>
       <c r="AA13" s="17">
-        <f>Z13+Y13</f>
+        <f t="shared" si="0"/>
         <v>0.26425514287569785</v>
       </c>
       <c r="AB13" s="17">
@@ -3557,7 +3557,7 @@
         <v>7.469691295819203E-2</v>
       </c>
       <c r="AA14" s="17">
-        <f>Z14+Y14</f>
+        <f t="shared" si="0"/>
         <v>0.26321022569595753</v>
       </c>
       <c r="AB14" s="17">
@@ -3671,7 +3671,7 @@
         <v>4.0673879242918431E-2</v>
       </c>
       <c r="AA15" s="17">
-        <f>Z15+Y15</f>
+        <f t="shared" si="0"/>
         <v>0.12361254201172409</v>
       </c>
       <c r="AB15" s="17">
@@ -3785,7 +3785,7 @@
         <v>4.0284267800226203E-2</v>
       </c>
       <c r="AA16" s="17">
-        <f>Z16+Y16</f>
+        <f t="shared" si="0"/>
         <v>0.15437949912609789</v>
       </c>
       <c r="AB16" s="17">
@@ -3899,7 +3899,7 @@
         <v>9.2799712587721572E-2</v>
       </c>
       <c r="AA17" s="17">
-        <f>Z17+Y17</f>
+        <f t="shared" si="0"/>
         <v>0.25047712856331988</v>
       </c>
       <c r="AB17" s="17">
@@ -4013,7 +4013,7 @@
         <v>0.11541813254487998</v>
       </c>
       <c r="AA18" s="17">
-        <f>Z18+Y18</f>
+        <f t="shared" si="0"/>
         <v>0.25722313044470341</v>
       </c>
       <c r="AB18" s="17">
@@ -4127,7 +4127,7 @@
         <v>6.996076537396867E-2</v>
       </c>
       <c r="AA19" s="17">
-        <f>Z19+Y19</f>
+        <f t="shared" si="0"/>
         <v>0.25497793746312847</v>
       </c>
       <c r="AB19" s="17">
@@ -4241,7 +4241,7 @@
         <v>4.496299596267761E-2</v>
       </c>
       <c r="AA20" s="17">
-        <f>Z20+Y20</f>
+        <f t="shared" si="0"/>
         <v>0.14742723619140391</v>
       </c>
       <c r="AB20" s="17">
@@ -4355,7 +4355,7 @@
         <v>5.5768236673866767E-2</v>
       </c>
       <c r="AA21" s="17">
-        <f>Z21+Y21</f>
+        <f t="shared" si="0"/>
         <v>0.15980106850780523</v>
       </c>
       <c r="AB21" s="17">
@@ -4469,7 +4469,7 @@
         <v>4.2839070415642055E-2</v>
       </c>
       <c r="AA22" s="17">
-        <f>Z22+Y22</f>
+        <f t="shared" si="0"/>
         <v>0.13513117465915145</v>
       </c>
       <c r="AB22" s="17">
@@ -4583,7 +4583,7 @@
         <v>7.6549351896058937E-2</v>
       </c>
       <c r="AA23" s="17">
-        <f>Z23+Y23</f>
+        <f t="shared" si="0"/>
         <v>0.20856415805250467</v>
       </c>
       <c r="AB23" s="17">
@@ -4697,7 +4697,7 @@
         <v>3.713055186967118E-2</v>
       </c>
       <c r="AA24" s="17">
-        <f>Z24+Y24</f>
+        <f t="shared" si="0"/>
         <v>0.17298549094765062</v>
       </c>
       <c r="AB24" s="17">
@@ -4811,7 +4811,7 @@
         <v>6.9059757844065928E-2</v>
       </c>
       <c r="AA25" s="17">
-        <f>Z25+Y25</f>
+        <f t="shared" si="0"/>
         <v>0.17501190364488639</v>
       </c>
       <c r="AB25" s="17">
@@ -4925,7 +4925,7 @@
         <v>5.8665445925543125E-2</v>
       </c>
       <c r="AA26" s="17">
-        <f>Z26+Y26</f>
+        <f t="shared" si="0"/>
         <v>0.1235873060933259</v>
       </c>
       <c r="AB26" s="17">
@@ -5039,7 +5039,7 @@
         <v>4.4974746166868584E-2</v>
       </c>
       <c r="AA27" s="17">
-        <f>Z27+Y27</f>
+        <f t="shared" si="0"/>
         <v>0.11786885826972553</v>
       </c>
       <c r="AB27" s="17">
@@ -5153,7 +5153,7 @@
         <v>2.1641730580340024E-2</v>
       </c>
       <c r="AA28" s="17">
-        <f>Z28+Y28</f>
+        <f t="shared" si="0"/>
         <v>0.1191149427179345</v>
       </c>
       <c r="AB28" s="17">
@@ -5267,7 +5267,7 @@
         <v>1.3355233385309973E-2</v>
       </c>
       <c r="AA29" s="17">
-        <f>Z29+Y29</f>
+        <f t="shared" si="0"/>
         <v>0.16014359192583016</v>
       </c>
       <c r="AB29" s="17">
@@ -5381,7 +5381,7 @@
         <v>3.970868607328093E-2</v>
       </c>
       <c r="AA30" s="17">
-        <f>Z30+Y30</f>
+        <f t="shared" si="0"/>
         <v>0.15311662106949836</v>
       </c>
       <c r="AB30" s="17">
@@ -5495,7 +5495,7 @@
         <v>8.2242086985104379E-2</v>
       </c>
       <c r="AA31" s="17">
-        <f>Z31+Y31</f>
+        <f t="shared" si="0"/>
         <v>0.17883875977227665</v>
       </c>
       <c r="AB31" s="17">
@@ -5609,7 +5609,7 @@
         <v>5.8357272781242031E-2</v>
       </c>
       <c r="AA32" s="17">
-        <f>Z32+Y32</f>
+        <f t="shared" si="0"/>
         <v>0.17464684463376082</v>
       </c>
       <c r="AB32" s="17">
@@ -5723,7 +5723,7 @@
         <v>8.1638887738499477E-2</v>
       </c>
       <c r="AA33" s="17">
-        <f>Z33+Y33</f>
+        <f t="shared" si="0"/>
         <v>0.19441391565357133</v>
       </c>
       <c r="AB33" s="17">
@@ -5837,7 +5837,7 @@
         <v>6.1620310050605198E-2</v>
       </c>
       <c r="AA34" s="17">
-        <f>Z34+Y34</f>
+        <f t="shared" ref="AA34:AA65" si="1">Z34+Y34</f>
         <v>0.18612660110201767</v>
       </c>
       <c r="AB34" s="17">
@@ -5951,7 +5951,7 @@
         <v>0.13639695867576229</v>
       </c>
       <c r="AA35" s="17">
-        <f>Z35+Y35</f>
+        <f t="shared" si="1"/>
         <v>0.24914960812072562</v>
       </c>
       <c r="AB35" s="17">
@@ -6065,7 +6065,7 @@
         <v>0.11423338173349329</v>
       </c>
       <c r="AA36" s="17">
-        <f>Z36+Y36</f>
+        <f t="shared" si="1"/>
         <v>0.24570558911424975</v>
       </c>
       <c r="AB36" s="17">
@@ -6179,7 +6179,7 @@
         <v>0.12337227608998624</v>
       </c>
       <c r="AA37" s="17">
-        <f>Z37+Y37</f>
+        <f t="shared" si="1"/>
         <v>0.23723627399977881</v>
       </c>
       <c r="AB37" s="17">
@@ -6293,7 +6293,7 @@
         <v>8.6380327955446035E-2</v>
       </c>
       <c r="AA38" s="17">
-        <f>Z38+Y38</f>
+        <f t="shared" si="1"/>
         <v>0.25546546557190192</v>
       </c>
       <c r="AB38" s="17">
@@ -6407,7 +6407,7 @@
         <v>8.2179324549080945E-2</v>
       </c>
       <c r="AA39" s="17">
-        <f>Z39+Y39</f>
+        <f t="shared" si="1"/>
         <v>0.25573162815718486</v>
       </c>
       <c r="AB39" s="17">
@@ -6521,7 +6521,7 @@
         <v>8.4469163936335079E-2</v>
       </c>
       <c r="AA40" s="17">
-        <f>Z40+Y40</f>
+        <f t="shared" si="1"/>
         <v>0.2608282108101927</v>
       </c>
       <c r="AB40" s="17">
@@ -6635,7 +6635,7 @@
         <v>7.3847100442645086E-2</v>
       </c>
       <c r="AA41" s="17">
-        <f>Z41+Y41</f>
+        <f t="shared" si="1"/>
         <v>0.24926264500403239</v>
       </c>
       <c r="AB41" s="17">
@@ -6749,7 +6749,7 @@
         <v>0.10511059150216795</v>
       </c>
       <c r="AA42" s="17">
-        <f>Z42+Y42</f>
+        <f t="shared" si="1"/>
         <v>0.24197681371872676</v>
       </c>
       <c r="AB42" s="17">
@@ -6863,7 +6863,7 @@
         <v>0.10199850532719346</v>
       </c>
       <c r="AA43" s="17">
-        <f>Z43+Y43</f>
+        <f t="shared" si="1"/>
         <v>0.24980229231964862</v>
       </c>
       <c r="AB43" s="17">
@@ -6977,7 +6977,7 @@
         <v>2.3994108079236298E-2</v>
       </c>
       <c r="AA44" s="17">
-        <f>Z44+Y44</f>
+        <f t="shared" si="1"/>
         <v>9.9094684608369246E-2</v>
       </c>
       <c r="AB44" s="17">
@@ -7091,7 +7091,7 @@
         <v>5.3358046661944769E-2</v>
       </c>
       <c r="AA45" s="17">
-        <f>Z45+Y45</f>
+        <f t="shared" si="1"/>
         <v>0.14577757611449293</v>
       </c>
       <c r="AB45" s="17">
@@ -7205,7 +7205,7 @@
         <v>6.7745109319032437E-2</v>
       </c>
       <c r="AA46" s="17">
-        <f>Z46+Y46</f>
+        <f t="shared" si="1"/>
         <v>0.25082844136894017</v>
       </c>
       <c r="AB46" s="17">
@@ -7319,7 +7319,7 @@
         <v>0.10740120359241878</v>
       </c>
       <c r="AA47" s="17">
-        <f>Z47+Y47</f>
+        <f t="shared" si="1"/>
         <v>0.25942860233466564</v>
       </c>
       <c r="AB47" s="17">
@@ -7433,7 +7433,7 @@
         <v>9.5752852268667255E-2</v>
       </c>
       <c r="AA48" s="17">
-        <f>Z48+Y48</f>
+        <f t="shared" si="1"/>
         <v>0.22607178099137709</v>
       </c>
       <c r="AB48" s="17">
@@ -7547,7 +7547,7 @@
         <v>2.1475099066019965E-2</v>
       </c>
       <c r="AA49" s="17">
-        <f>Z49+Y49</f>
+        <f t="shared" si="1"/>
         <v>0.11873460519434419</v>
       </c>
       <c r="AB49" s="17">
@@ -7661,7 +7661,7 @@
         <v>8.6896638127848647E-2</v>
       </c>
       <c r="AA50" s="17">
-        <f>Z50+Y50</f>
+        <f t="shared" si="1"/>
         <v>0.19488134609309982</v>
       </c>
       <c r="AB50" s="17">
@@ -7775,7 +7775,7 @@
         <v>7.5548117796419234E-2</v>
       </c>
       <c r="AA51" s="17">
-        <f>Z51+Y51</f>
+        <f t="shared" si="1"/>
         <v>0.15522433391633758</v>
       </c>
       <c r="AB51" s="17">
@@ -7889,7 +7889,7 @@
         <v>5.2444187816471199E-2</v>
       </c>
       <c r="AA52" s="17">
-        <f>Z52+Y52</f>
+        <f t="shared" si="1"/>
         <v>0.13332189578439418</v>
       </c>
       <c r="AB52" s="17">
@@ -8003,7 +8003,7 @@
         <v>2.5476085295158768E-2</v>
       </c>
       <c r="AA53" s="17">
-        <f>Z53+Y53</f>
+        <f t="shared" si="1"/>
         <v>9.2321385631985109E-2</v>
       </c>
       <c r="AB53" s="17">
@@ -8117,7 +8117,7 @@
         <v>1.1824455793213673E-2</v>
       </c>
       <c r="AA54" s="17">
-        <f>Z54+Y54</f>
+        <f t="shared" si="1"/>
         <v>9.1396651094078227E-2</v>
       </c>
       <c r="AB54" s="17">
@@ -8231,7 +8231,7 @@
         <v>0.10980308924807325</v>
       </c>
       <c r="AA55" s="17">
-        <f>Z55+Y55</f>
+        <f t="shared" si="1"/>
         <v>0.25235374569042146</v>
       </c>
       <c r="AB55" s="17">
@@ -8345,7 +8345,7 @@
         <v>5.911257518079438E-2</v>
       </c>
       <c r="AA56" s="17">
-        <f>Z56+Y56</f>
+        <f t="shared" si="1"/>
         <v>0.15037670246056437</v>
       </c>
       <c r="AB56" s="17">
@@ -8459,7 +8459,7 @@
         <v>6.0153588880783815E-2</v>
       </c>
       <c r="AA57" s="17">
-        <f>Z57+Y57</f>
+        <f t="shared" si="1"/>
         <v>0.14466776449369587</v>
       </c>
       <c r="AB57" s="17">
@@ -8573,7 +8573,7 @@
         <v>5.9004028200316583E-2</v>
       </c>
       <c r="AA58" s="17">
-        <f>Z58+Y58</f>
+        <f t="shared" si="1"/>
         <v>0.14749722406549895</v>
       </c>
       <c r="AB58" s="17">
@@ -8687,7 +8687,7 @@
         <v>0.11350728840594471</v>
       </c>
       <c r="AA59" s="17">
-        <f>Z59+Y59</f>
+        <f t="shared" si="1"/>
         <v>0.25004093457040388</v>
       </c>
       <c r="AB59" s="17">
@@ -8801,7 +8801,7 @@
         <v>9.3888424328705256E-2</v>
       </c>
       <c r="AA60" s="17">
-        <f>Z60+Y60</f>
+        <f t="shared" si="1"/>
         <v>0.25130768437564344</v>
       </c>
       <c r="AB60" s="17">
@@ -8915,7 +8915,7 @@
         <v>0.10556977038743121</v>
       </c>
       <c r="AA61" s="17">
-        <f>Z61+Y61</f>
+        <f t="shared" si="1"/>
         <v>0.25430145304078494</v>
       </c>
       <c r="AB61" s="17">
@@ -9029,7 +9029,7 @@
         <v>5.1164435793376484E-2</v>
       </c>
       <c r="AA62" s="17">
-        <f>Z62+Y62</f>
+        <f t="shared" si="1"/>
         <v>0.10634636128217589</v>
       </c>
       <c r="AB62" s="17">
@@ -9143,7 +9143,7 @@
         <v>8.629257046729677E-3</v>
       </c>
       <c r="AA63" s="17">
-        <f>Z63+Y63</f>
+        <f t="shared" si="1"/>
         <v>9.2162659838633657E-2</v>
       </c>
       <c r="AB63" s="17">
@@ -9257,7 +9257,7 @@
         <v>7.4819210580404416E-2</v>
       </c>
       <c r="AA64" s="17">
-        <f>Z64+Y64</f>
+        <f t="shared" si="1"/>
         <v>0.16074826726497465</v>
       </c>
       <c r="AB64" s="17">
@@ -9371,7 +9371,7 @@
         <v>1.5757825773695444E-2</v>
       </c>
       <c r="AA65" s="17">
-        <f>Z65+Y65</f>
+        <f t="shared" si="1"/>
         <v>8.3848324873171121E-2</v>
       </c>
       <c r="AB65" s="17">
@@ -9485,7 +9485,7 @@
         <v>8.4502486619985717E-2</v>
       </c>
       <c r="AA66" s="17">
-        <f>Z66+Y66</f>
+        <f t="shared" ref="AA66:AA97" si="2">Z66+Y66</f>
         <v>0.24104180287184443</v>
       </c>
       <c r="AB66" s="17">
@@ -9599,7 +9599,7 @@
         <v>0.11089959265808957</v>
       </c>
       <c r="AA67" s="17">
-        <f>Z67+Y67</f>
+        <f t="shared" si="2"/>
         <v>0.26338952835422941</v>
       </c>
       <c r="AB67" s="17">
@@ -9713,7 +9713,7 @@
         <v>4.5717168179644219E-2</v>
       </c>
       <c r="AA68" s="17">
-        <f>Z68+Y68</f>
+        <f t="shared" si="2"/>
         <v>0.11491386342425106</v>
       </c>
       <c r="AB68" s="17">
@@ -9827,7 +9827,7 @@
         <v>3.9388391265257283E-2</v>
       </c>
       <c r="AA69" s="17">
-        <f>Z69+Y69</f>
+        <f t="shared" si="2"/>
         <v>0.10968503369235923</v>
       </c>
       <c r="AB69" s="17">
@@ -9941,7 +9941,7 @@
         <v>0.1210825552768906</v>
       </c>
       <c r="AA70" s="17">
-        <f>Z70+Y70</f>
+        <f t="shared" si="2"/>
         <v>0.25853073703419843</v>
       </c>
       <c r="AB70" s="17">
@@ -10055,7 +10055,7 @@
         <v>0.11379007076982184</v>
       </c>
       <c r="AA71" s="17">
-        <f>Z71+Y71</f>
+        <f t="shared" si="2"/>
         <v>0.25249673553963464</v>
       </c>
       <c r="AB71" s="17">
@@ -10169,7 +10169,7 @@
         <v>9.0901469840307669E-2</v>
       </c>
       <c r="AA72" s="17">
-        <f>Z72+Y72</f>
+        <f t="shared" si="2"/>
         <v>0.2539716804045537</v>
       </c>
       <c r="AB72" s="17">
@@ -10283,7 +10283,7 @@
         <v>6.3108676146216069E-2</v>
       </c>
       <c r="AA73" s="17">
-        <f>Z73+Y73</f>
+        <f t="shared" si="2"/>
         <v>0.14577616947403899</v>
       </c>
       <c r="AB73" s="17">
@@ -10397,7 +10397,7 @@
         <v>6.1564110733327126E-2</v>
       </c>
       <c r="AA74" s="17">
-        <f>Z74+Y74</f>
+        <f t="shared" si="2"/>
         <v>0.11637209085739041</v>
       </c>
       <c r="AB74" s="17">
@@ -10511,7 +10511,7 @@
         <v>4.2132050807605737E-2</v>
       </c>
       <c r="AA75" s="17">
-        <f>Z75+Y75</f>
+        <f t="shared" si="2"/>
         <v>0.11388883892660241</v>
       </c>
       <c r="AB75" s="17">
@@ -10625,7 +10625,7 @@
         <v>3.6303616629842494E-2</v>
       </c>
       <c r="AA76" s="17">
-        <f>Z76+Y76</f>
+        <f t="shared" si="2"/>
         <v>0.13118075250740488</v>
       </c>
       <c r="AB76" s="17">
@@ -10739,7 +10739,7 @@
         <v>6.6224765127756768E-2</v>
       </c>
       <c r="AA77" s="17">
-        <f>Z77+Y77</f>
+        <f t="shared" si="2"/>
         <v>0.15106060820551606</v>
       </c>
       <c r="AB77" s="17">
@@ -10853,7 +10853,7 @@
         <v>6.9281812487991701E-2</v>
       </c>
       <c r="AA78" s="17">
-        <f>Z78+Y78</f>
+        <f t="shared" si="2"/>
         <v>0.14689500937033595</v>
       </c>
       <c r="AB78" s="17">
@@ -10967,7 +10967,7 @@
         <v>4.7528565954683799E-2</v>
       </c>
       <c r="AA79" s="17">
-        <f>Z79+Y79</f>
+        <f t="shared" si="2"/>
         <v>0.1273782283642734</v>
       </c>
       <c r="AB79" s="17">
@@ -11081,7 +11081,7 @@
         <v>0.10000356163511093</v>
       </c>
       <c r="AA80" s="17">
-        <f>Z80+Y80</f>
+        <f t="shared" si="2"/>
         <v>0.24118305915655167</v>
       </c>
       <c r="AB80" s="17">
@@ -11195,7 +11195,7 @@
         <v>0.11224256365621521</v>
       </c>
       <c r="AA81" s="17">
-        <f>Z81+Y81</f>
+        <f t="shared" si="2"/>
         <v>0.25402797217054662</v>
       </c>
       <c r="AB81" s="17">
@@ -11309,7 +11309,7 @@
         <v>9.7477058807582395E-2</v>
       </c>
       <c r="AA82" s="17">
-        <f>Z82+Y82</f>
+        <f t="shared" si="2"/>
         <v>0.26188860442492262</v>
       </c>
       <c r="AB82" s="17">
@@ -11423,7 +11423,7 @@
         <v>0.15829106966972084</v>
       </c>
       <c r="AA83" s="17">
-        <f>Z83+Y83</f>
+        <f t="shared" si="2"/>
         <v>0.25013983918188426</v>
       </c>
       <c r="AB83" s="17">
@@ -11537,7 +11537,7 @@
         <v>0.11144672420772217</v>
       </c>
       <c r="AA84" s="17">
-        <f>Z84+Y84</f>
+        <f t="shared" si="2"/>
         <v>0.25526535079155699</v>
       </c>
       <c r="AB84" s="17">
@@ -11651,7 +11651,7 @@
         <v>9.2929549383580223E-2</v>
       </c>
       <c r="AA85" s="17">
-        <f>Z85+Y85</f>
+        <f t="shared" si="2"/>
         <v>0.25204237992977091</v>
       </c>
       <c r="AB85" s="17">
@@ -11765,7 +11765,7 @@
         <v>8.8305390499918701E-2</v>
       </c>
       <c r="AA86" s="17">
-        <f>Z86+Y86</f>
+        <f t="shared" si="2"/>
         <v>0.13745613108481544</v>
       </c>
       <c r="AB86" s="17">
@@ -11879,7 +11879,7 @@
         <v>9.8734546546092261E-2</v>
       </c>
       <c r="AA87" s="17">
-        <f>Z87+Y87</f>
+        <f t="shared" si="2"/>
         <v>0.16361467447683053</v>
       </c>
       <c r="AB87" s="17">
@@ -11993,7 +11993,7 @@
         <v>0.18226392681353332</v>
       </c>
       <c r="AA88" s="17">
-        <f>Z88+Y88</f>
+        <f t="shared" si="2"/>
         <v>0.25432138511683933</v>
       </c>
       <c r="AB88" s="17">
@@ -12107,7 +12107,7 @@
         <v>0.14561943375213993</v>
       </c>
       <c r="AA89" s="17">
-        <f>Z89+Y89</f>
+        <f t="shared" si="2"/>
         <v>0.25123164918024965</v>
       </c>
       <c r="AB89" s="17">
@@ -12221,7 +12221,7 @@
         <v>0.12364326525710823</v>
       </c>
       <c r="AA90" s="17">
-        <f>Z90+Y90</f>
+        <f t="shared" si="2"/>
         <v>0.25639983085680501</v>
       </c>
       <c r="AB90" s="17">
@@ -12335,7 +12335,7 @@
         <v>9.4953242787811476E-2</v>
       </c>
       <c r="AA91" s="17">
-        <f>Z91+Y91</f>
+        <f t="shared" si="2"/>
         <v>0.26490326679985304</v>
       </c>
       <c r="AB91" s="17">
@@ -12449,7 +12449,7 @@
         <v>9.7251351903166139E-2</v>
       </c>
       <c r="AA92" s="17">
-        <f>Z92+Y92</f>
+        <f t="shared" si="2"/>
         <v>0.27069310224584381</v>
       </c>
       <c r="AB92" s="17">
@@ -12563,7 +12563,7 @@
         <v>0.10655063692568589</v>
       </c>
       <c r="AA93" s="17">
-        <f>Z93+Y93</f>
+        <f t="shared" si="2"/>
         <v>0.22336884137513344</v>
       </c>
       <c r="AB93" s="17">
@@ -12677,7 +12677,7 @@
         <v>0.10461488112563266</v>
       </c>
       <c r="AA94" s="17">
-        <f>Z94+Y94</f>
+        <f t="shared" si="2"/>
         <v>0.23004847401202372</v>
       </c>
       <c r="AB94" s="17">
@@ -12791,7 +12791,7 @@
         <v>0.12095336192843043</v>
       </c>
       <c r="AA95" s="17">
-        <f>Z95+Y95</f>
+        <f t="shared" si="2"/>
         <v>0.22872218489688931</v>
       </c>
       <c r="AB95" s="17">
@@ -12905,7 +12905,7 @@
         <v>0.14465609607243124</v>
       </c>
       <c r="AA96" s="17">
-        <f>Z96+Y96</f>
+        <f t="shared" si="2"/>
         <v>0.24477356683793447</v>
       </c>
       <c r="AB96" s="17">
@@ -13019,7 +13019,7 @@
         <v>0.10891460378746132</v>
       </c>
       <c r="AA97" s="17">
-        <f>Z97+Y97</f>
+        <f t="shared" si="2"/>
         <v>0.26603657917282797</v>
       </c>
       <c r="AB97" s="17">
@@ -13133,7 +13133,7 @@
         <v>0.12162874380953781</v>
       </c>
       <c r="AA98" s="17">
-        <f>Z98+Y98</f>
+        <f t="shared" ref="AA98:AA129" si="3">Z98+Y98</f>
         <v>0.2646504845457619</v>
       </c>
       <c r="AB98" s="17">
@@ -13247,7 +13247,7 @@
         <v>0.12355766312643368</v>
       </c>
       <c r="AA99" s="17">
-        <f>Z99+Y99</f>
+        <f t="shared" si="3"/>
         <v>0.25564393401209234</v>
       </c>
       <c r="AB99" s="17">
@@ -13361,7 +13361,7 @@
         <v>7.4308804018713204E-2</v>
       </c>
       <c r="AA100" s="17">
-        <f>Z100+Y100</f>
+        <f t="shared" si="3"/>
         <v>0.12174386714726218</v>
       </c>
       <c r="AB100" s="17">
@@ -13475,7 +13475,7 @@
         <v>9.4689285510227705E-2</v>
       </c>
       <c r="AA101" s="17">
-        <f>Z101+Y101</f>
+        <f t="shared" si="3"/>
         <v>0.19966848454751174</v>
       </c>
       <c r="AB101" s="17">
@@ -13589,7 +13589,7 @@
         <v>6.7148504265372111E-2</v>
       </c>
       <c r="AA102" s="17">
-        <f>Z102+Y102</f>
+        <f t="shared" si="3"/>
         <v>0.21256052616433768</v>
       </c>
       <c r="AB102" s="17">
@@ -13703,7 +13703,7 @@
         <v>0.12591581052647172</v>
       </c>
       <c r="AA103" s="17">
-        <f>Z103+Y103</f>
+        <f t="shared" si="3"/>
         <v>0.24937771052433755</v>
       </c>
       <c r="AB103" s="17">
@@ -13817,7 +13817,7 @@
         <v>0.13650350436904901</v>
       </c>
       <c r="AA104" s="17">
-        <f>Z104+Y104</f>
+        <f t="shared" si="3"/>
         <v>0.25288206205593211</v>
       </c>
       <c r="AB104" s="17">
@@ -13932,7 +13932,7 @@
         <v>0.1320658294375896</v>
       </c>
       <c r="AA105" s="17">
-        <f>Z105+Y105</f>
+        <f t="shared" si="3"/>
         <v>0.25392273580155506</v>
       </c>
       <c r="AB105" s="17">
@@ -14046,7 +14046,7 @@
         <v>4.8371711753244284E-2</v>
       </c>
       <c r="AA106" s="17">
-        <f>Z106+Y106</f>
+        <f t="shared" si="3"/>
         <v>0.11639532360459151</v>
       </c>
       <c r="AB106" s="17">
@@ -14161,7 +14161,7 @@
         <v>4.6616701093302737E-2</v>
       </c>
       <c r="AA107" s="17">
-        <f>Z107+Y107</f>
+        <f t="shared" si="3"/>
         <v>0.12085731119287474</v>
       </c>
       <c r="AB107" s="17">
@@ -14275,7 +14275,7 @@
         <v>3.4365954010104005E-2</v>
       </c>
       <c r="AA108" s="17">
-        <f>Z108+Y108</f>
+        <f t="shared" si="3"/>
         <v>0.11374730465320461</v>
       </c>
       <c r="AB108" s="17">
@@ -14389,7 +14389,7 @@
         <v>8.0519801433037941E-2</v>
       </c>
       <c r="AA109" s="17">
-        <f>Z109+Y109</f>
+        <f t="shared" si="3"/>
         <v>0.14589429867763415</v>
       </c>
       <c r="AB109" s="17">
@@ -14503,7 +14503,7 @@
         <v>9.1736043363273012E-2</v>
       </c>
       <c r="AA110" s="17">
-        <f>Z110+Y110</f>
+        <f t="shared" si="3"/>
         <v>0.1541491908720502</v>
       </c>
       <c r="AB110" s="17">
@@ -14617,7 +14617,7 @@
         <v>6.2995272714118755E-2</v>
       </c>
       <c r="AA111" s="17">
-        <f>Z111+Y111</f>
+        <f t="shared" si="3"/>
         <v>0.13770679542695771</v>
       </c>
       <c r="AB111" s="17">
@@ -14731,7 +14731,7 @@
         <v>6.1778549110371728E-2</v>
       </c>
       <c r="AA112" s="17">
-        <f>Z112+Y112</f>
+        <f t="shared" si="3"/>
         <v>0.13641552828677156</v>
       </c>
       <c r="AB112" s="17">
@@ -14845,7 +14845,7 @@
         <v>5.5899649698048393E-2</v>
       </c>
       <c r="AA113" s="17">
-        <f>Z113+Y113</f>
+        <f t="shared" si="3"/>
         <v>0.146461894837603</v>
       </c>
       <c r="AB113" s="17">
@@ -14959,7 +14959,7 @@
         <v>4.8859252566627376E-2</v>
       </c>
       <c r="AA114" s="17">
-        <f>Z114+Y114</f>
+        <f t="shared" si="3"/>
         <v>0.19690987247309069</v>
       </c>
       <c r="AB114" s="17">
@@ -15073,7 +15073,7 @@
         <v>8.193486712763054E-2</v>
       </c>
       <c r="AA115" s="17">
-        <f>Z115+Y115</f>
+        <f t="shared" si="3"/>
         <v>0.1393507301396199</v>
       </c>
       <c r="AB115" s="17">
@@ -15187,7 +15187,7 @@
         <v>9.0157659712112093E-2</v>
       </c>
       <c r="AA116" s="17">
-        <f>Z116+Y116</f>
+        <f t="shared" si="3"/>
         <v>0.13163038906069902</v>
       </c>
       <c r="AB116" s="17">
@@ -15301,7 +15301,7 @@
         <v>5.3712780576310237E-2</v>
       </c>
       <c r="AA117" s="17">
-        <f>Z117+Y117</f>
+        <f t="shared" si="3"/>
         <v>0.11692097043375883</v>
       </c>
       <c r="AB117" s="17">
@@ -15415,7 +15415,7 @@
         <v>4.5820771848667619E-2</v>
       </c>
       <c r="AA118" s="17">
-        <f>Z118+Y118</f>
+        <f t="shared" si="3"/>
         <v>9.4651839698788681E-2</v>
       </c>
       <c r="AB118" s="17">
@@ -15529,7 +15529,7 @@
         <v>4.6300686708324434E-2</v>
       </c>
       <c r="AA119" s="17">
-        <f>Z119+Y119</f>
+        <f t="shared" si="3"/>
         <v>8.9403732449279488E-2</v>
       </c>
       <c r="AB119" s="17">
@@ -15643,7 +15643,7 @@
         <v>5.1319512201549955E-2</v>
       </c>
       <c r="AA120" s="17">
-        <f>Z120+Y120</f>
+        <f t="shared" si="3"/>
         <v>9.0157416722823805E-2</v>
       </c>
       <c r="AB120" s="17">
@@ -15757,7 +15757,7 @@
         <v>4.9406831730150813E-2</v>
       </c>
       <c r="AA121" s="17">
-        <f>Z121+Y121</f>
+        <f t="shared" si="3"/>
         <v>0.10222405608942016</v>
       </c>
       <c r="AB121" s="17">
@@ -15871,7 +15871,7 @@
         <v>3.8596000254450757E-2</v>
       </c>
       <c r="AA122" s="17">
-        <f>Z122+Y122</f>
+        <f t="shared" si="3"/>
         <v>0.10073280916596784</v>
       </c>
       <c r="AB122" s="17">
@@ -15985,7 +15985,7 @@
         <v>4.0282244088720276E-2</v>
       </c>
       <c r="AA123" s="17">
-        <f>Z123+Y123</f>
+        <f t="shared" si="3"/>
         <v>0.10789778941342539</v>
       </c>
       <c r="AB123" s="17">
@@ -16099,7 +16099,7 @@
         <v>0.13701732960599244</v>
       </c>
       <c r="AA124" s="17">
-        <f>Z124+Y124</f>
+        <f t="shared" si="3"/>
         <v>0.26229484040125878</v>
       </c>
       <c r="AB124" s="17">
@@ -16213,7 +16213,7 @@
         <v>7.5480632734009845E-2</v>
       </c>
       <c r="AA125" s="17">
-        <f>Z125+Y125</f>
+        <f t="shared" si="3"/>
         <v>0.25122745388020928</v>
       </c>
       <c r="AB125" s="17">
@@ -16327,7 +16327,7 @@
         <v>0.10761805498458976</v>
       </c>
       <c r="AA126" s="17">
-        <f>Z126+Y126</f>
+        <f t="shared" si="3"/>
         <v>0.25804335892243713</v>
       </c>
       <c r="AB126" s="17">
@@ -16441,7 +16441,7 @@
         <v>6.632204177295975E-2</v>
       </c>
       <c r="AA127" s="17">
-        <f>Z127+Y127</f>
+        <f t="shared" si="3"/>
         <v>9.8987790323406211E-2</v>
       </c>
       <c r="AB127" s="17">
@@ -16555,7 +16555,7 @@
         <v>2.3823685813091799E-2</v>
       </c>
       <c r="AA128" s="17">
-        <f>Z128+Y128</f>
+        <f t="shared" si="3"/>
         <v>0.10011997235196031</v>
       </c>
       <c r="AB128" s="17">
@@ -16669,7 +16669,7 @@
         <v>7.6425379700649998E-2</v>
       </c>
       <c r="AA129" s="17">
-        <f>Z129+Y129</f>
+        <f t="shared" si="3"/>
         <v>0.13946629647192871</v>
       </c>
       <c r="AB129" s="17">
@@ -16783,7 +16783,7 @@
         <v>9.879890135727365E-2</v>
       </c>
       <c r="AA130" s="17">
-        <f>Z130+Y130</f>
+        <f t="shared" ref="AA130:AA161" si="4">Z130+Y130</f>
         <v>0.13414206370421888</v>
       </c>
       <c r="AB130" s="17">
@@ -16897,7 +16897,7 @@
         <v>5.6361607273565539E-2</v>
       </c>
       <c r="AA131" s="17">
-        <f>Z131+Y131</f>
+        <f t="shared" si="4"/>
         <v>0.12430895260235662</v>
       </c>
       <c r="AB131" s="17">
@@ -17011,7 +17011,7 @@
         <v>0.12895521165767576</v>
       </c>
       <c r="AA132" s="17">
-        <f>Z132+Y132</f>
+        <f t="shared" si="4"/>
         <v>0.25007782845721505</v>
       </c>
       <c r="AB132" s="17">
@@ -17125,7 +17125,7 @@
         <v>0.12855798551037623</v>
       </c>
       <c r="AA133" s="17">
-        <f>Z133+Y133</f>
+        <f t="shared" si="4"/>
         <v>0.23423462549179536</v>
       </c>
       <c r="AB133" s="17">
@@ -17239,7 +17239,7 @@
         <v>0.12827619328502315</v>
       </c>
       <c r="AA134" s="17">
-        <f>Z134+Y134</f>
+        <f t="shared" si="4"/>
         <v>0.2264945524871394</v>
       </c>
       <c r="AB134" s="17">
@@ -17353,7 +17353,7 @@
         <v>0.13753970045640784</v>
       </c>
       <c r="AA135" s="17">
-        <f>Z135+Y135</f>
+        <f t="shared" si="4"/>
         <v>0.25520266917436341</v>
       </c>
       <c r="AB135" s="17">
@@ -17467,7 +17467,7 @@
         <v>0.12092197748423672</v>
       </c>
       <c r="AA136" s="17">
-        <f>Z136+Y136</f>
+        <f t="shared" si="4"/>
         <v>0.26070912317797262</v>
       </c>
       <c r="AB136" s="17">
@@ -17581,7 +17581,7 @@
         <v>0.10350621497985024</v>
       </c>
       <c r="AA137" s="17">
-        <f>Z137+Y137</f>
+        <f t="shared" si="4"/>
         <v>0.25377738666306426</v>
       </c>
       <c r="AB137" s="17">
@@ -17695,7 +17695,7 @@
         <v>7.1246854110954771E-2</v>
       </c>
       <c r="AA138" s="17">
-        <f>Z138+Y138</f>
+        <f t="shared" si="4"/>
         <v>0.13163304203641396</v>
       </c>
       <c r="AB138" s="17">
@@ -17809,7 +17809,7 @@
         <v>0.11324925160441701</v>
       </c>
       <c r="AA139" s="17">
-        <f>Z139+Y139</f>
+        <f t="shared" si="4"/>
         <v>0.24998455017811785</v>
       </c>
       <c r="AB139" s="17">
@@ -17923,7 +17923,7 @@
         <v>4.2939724611716912E-2</v>
       </c>
       <c r="AA140" s="17">
-        <f>Z140+Y140</f>
+        <f t="shared" si="4"/>
         <v>9.4770238182307495E-2</v>
       </c>
       <c r="AB140" s="17">
@@ -18037,7 +18037,7 @@
         <v>4.8159519960522701E-2</v>
       </c>
       <c r="AA141" s="17">
-        <f>Z141+Y141</f>
+        <f t="shared" si="4"/>
         <v>0.10328866233458038</v>
       </c>
       <c r="AB141" s="17">
@@ -18151,7 +18151,7 @@
         <v>3.4555912878404982E-2</v>
       </c>
       <c r="AA142" s="17">
-        <f>Z142+Y142</f>
+        <f t="shared" si="4"/>
         <v>9.3975196844430203E-2</v>
       </c>
       <c r="AB142" s="17">
@@ -18265,7 +18265,7 @@
         <v>6.4577454403940138E-2</v>
       </c>
       <c r="AA143" s="17">
-        <f>Z143+Y143</f>
+        <f t="shared" si="4"/>
         <v>0.11198951049402253</v>
       </c>
       <c r="AB143" s="17">
@@ -18379,7 +18379,7 @@
         <v>7.4782852811052791E-2</v>
       </c>
       <c r="AA144" s="17">
-        <f>Z144+Y144</f>
+        <f t="shared" si="4"/>
         <v>0.11845659776596268</v>
       </c>
       <c r="AB144" s="17">
@@ -18493,7 +18493,7 @@
         <v>8.0901223876811201E-2</v>
       </c>
       <c r="AA145" s="17">
-        <f>Z145+Y145</f>
+        <f t="shared" si="4"/>
         <v>0.11410587563111547</v>
       </c>
       <c r="AB145" s="17">
@@ -71822,9 +71822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E39544-3ACB-8849-8AB8-F7A0DF3FCC86}">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG10" sqref="AG10"/>
+      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71833,6 +71833,10 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
@@ -72011,16 +72015,16 @@
         <v>30</v>
       </c>
       <c r="AA2">
-        <v>72.400000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AB2">
-        <v>75.400000000000006</v>
+        <v>75</v>
       </c>
       <c r="AC2">
-        <v>83.8</v>
+        <v>84.8</v>
       </c>
       <c r="AD2">
-        <v>83.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">

--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69029755-DF7E-C14E-8201-DC8C67D13EE5}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3491E62A-CFCD-814C-9357-4EC22640ED9B}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-1940" windowWidth="23600" windowHeight="13240" activeTab="5" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
+    <workbookView xWindow="-28840" yWindow="-1940" windowWidth="23600" windowHeight="13240" activeTab="5" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
   <sheets>
     <sheet name="CPX_data" sheetId="3" r:id="rId1"/>
@@ -71823,8 +71823,8 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72009,16 +72009,16 @@
         <v>58.516916347126298</v>
       </c>
       <c r="Y2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA2">
-        <v>73.599999999999994</v>
+        <v>75</v>
       </c>
       <c r="AB2">
-        <v>75</v>
+        <v>75.8</v>
       </c>
       <c r="AC2">
         <v>84.8</v>

--- a/MSc_Data.xlsx
+++ b/MSc_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6102810740fca6b3/MSc_MonteNuovo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3491E62A-CFCD-814C-9357-4EC22640ED9B}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{A0FC228D-5039-C045-BED1-07DA91539603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FAB3973-F29E-0146-A745-F99224BBC00B}"/>
   <bookViews>
-    <workbookView xWindow="-28840" yWindow="-1940" windowWidth="23600" windowHeight="13240" activeTab="5" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
+    <workbookView xWindow="2920" yWindow="1040" windowWidth="23600" windowHeight="13240" activeTab="5" xr2:uid="{23954CDF-9B3E-044E-B684-816C5E429C62}"/>
   </bookViews>
   <sheets>
     <sheet name="CPX_data" sheetId="3" r:id="rId1"/>
@@ -1628,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1653,6 +1653,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71823,13 +71824,14 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE11" sqref="AE11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -71939,7 +71941,7 @@
       <c r="A2" t="s">
         <v>428</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="20">
         <v>68.869939137966796</v>
       </c>
       <c r="C2">
@@ -72031,7 +72033,7 @@
       <c r="A3" t="s">
         <v>429</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="20">
         <v>46.7048005256935</v>
       </c>
       <c r="C3">
@@ -72123,7 +72125,7 @@
       <c r="A4" t="s">
         <v>430</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="20">
         <v>58.536463011878297</v>
       </c>
       <c r="C4">
@@ -72215,7 +72217,7 @@
       <c r="A5" t="s">
         <v>431</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="20">
         <v>28.257313644712202</v>
       </c>
       <c r="C5">
@@ -72307,7 +72309,7 @@
       <c r="A6" t="s">
         <v>432</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="20">
         <v>32.647777213531398</v>
       </c>
       <c r="C6">
@@ -72399,7 +72401,7 @@
       <c r="A7" t="s">
         <v>433</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="20">
         <v>94.421165155722505</v>
       </c>
       <c r="C7">
@@ -72491,7 +72493,7 @@
       <c r="A8" t="s">
         <v>434</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>71.983488318699997</v>
       </c>
       <c r="C8">
@@ -72583,7 +72585,7 @@
       <c r="A9" t="s">
         <v>435</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="20">
         <v>256.55985653340201</v>
       </c>
       <c r="C9">
@@ -72675,7 +72677,7 @@
       <c r="A10" t="s">
         <v>436</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="20">
         <v>9.0435220563669692</v>
       </c>
       <c r="C10">
@@ -72767,7 +72769,7 @@
       <c r="A11" t="s">
         <v>437</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="20">
         <v>49.608228025971499</v>
       </c>
       <c r="C11">
@@ -72859,7 +72861,7 @@
       <c r="A12" t="s">
         <v>438</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="20">
         <v>25.836568691759499</v>
       </c>
       <c r="C12">
@@ -72951,7 +72953,7 @@
       <c r="A13" t="s">
         <v>439</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="20">
         <v>172.14717564817701</v>
       </c>
       <c r="C13">
@@ -73043,7 +73045,7 @@
       <c r="A14" t="s">
         <v>440</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="20">
         <v>253.705060380437</v>
       </c>
       <c r="C14">
@@ -73135,7 +73137,7 @@
       <c r="A15" t="s">
         <v>441</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="20">
         <v>42.033214469666497</v>
       </c>
       <c r="C15">
@@ -73227,7 +73229,7 @@
       <c r="A16" t="s">
         <v>442</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="20">
         <v>50.3711164360788</v>
       </c>
       <c r="C16">
@@ -73319,7 +73321,7 @@
       <c r="A17" t="s">
         <v>443</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="20">
         <v>286.39996137112701</v>
       </c>
       <c r="C17">
@@ -73411,7 +73413,7 @@
       <c r="A18" t="s">
         <v>444</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="20">
         <v>31.9599108534522</v>
       </c>
       <c r="C18">
@@ -73503,7 +73505,7 @@
       <c r="A19" t="s">
         <v>445</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="20">
         <v>187.53287075471499</v>
       </c>
       <c r="C19">
@@ -73595,7 +73597,7 @@
       <c r="A20" t="s">
         <v>446</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="20">
         <v>28.936459660519599</v>
       </c>
       <c r="C20">
